--- a/_files/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/_files/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -6724,9 +6724,6 @@
     </r>
   </si>
   <si>
-    <t>MOS-21750</t>
-  </si>
-  <si>
     <t>MOS-21751</t>
   </si>
   <si>
@@ -6889,6 +6886,10 @@
   </si>
   <si>
     <t>Sum of CUT Effort (PDs)</t>
+  </si>
+  <si>
+    <t>MOS-21750
+MOS-22068</t>
   </si>
 </sst>
 </file>
@@ -14137,7 +14138,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -14599,7 +14600,7 @@
         <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>140</v>
@@ -14629,7 +14630,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="148" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B6" s="149">
         <v>0</v>
@@ -14651,7 +14652,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="148" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B8" s="149">
         <v>10</v>
@@ -14662,7 +14663,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="148" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B9" s="149">
         <v>722</v>
@@ -14695,7 +14696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:V1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14883,7 +14884,7 @@
         <v>247</v>
       </c>
       <c r="T3" s="134" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U3" s="134"/>
       <c r="V3" s="135" t="s">
@@ -15154,7 +15155,7 @@
         <v>247</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U7" s="25"/>
       <c r="V7" s="19" t="s">
@@ -15354,7 +15355,7 @@
         <v>247</v>
       </c>
       <c r="T10" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U10" s="25"/>
       <c r="V10" s="20" t="s">
@@ -15528,7 +15529,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="63"/>
       <c r="T13" s="63" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U13" s="25"/>
       <c r="V13" s="19"/>
@@ -15660,7 +15661,7 @@
         <v>163</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="W15" s="19"/>
     </row>
@@ -15724,7 +15725,7 @@
         <v>163</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="W16" s="19"/>
     </row>
@@ -15788,7 +15789,7 @@
         <v>171</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W17" s="19"/>
     </row>
@@ -15854,7 +15855,7 @@
         <v>148</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W18" s="19"/>
     </row>
@@ -15972,7 +15973,7 @@
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U20" s="25"/>
       <c r="V20" s="19"/>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U21" s="25"/>
       <c r="V21" s="19"/>
@@ -16156,7 +16157,7 @@
         <v>247</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U23" s="25"/>
       <c r="V23" s="19" t="s">
@@ -16222,7 +16223,7 @@
         <v>247</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U24" s="25"/>
       <c r="V24" s="19" t="s">
@@ -16412,7 +16413,7 @@
       </c>
       <c r="S27" s="25"/>
       <c r="T27" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="19"/>
@@ -16439,7 +16440,7 @@
         <v>523</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>37</v>
@@ -16468,7 +16469,7 @@
       </c>
       <c r="S28" s="25"/>
       <c r="T28" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="19"/>
@@ -16662,7 +16663,7 @@
       </c>
       <c r="U31" s="25"/>
       <c r="V31" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="W31" s="19"/>
     </row>
@@ -16984,7 +16985,7 @@
         <v>247</v>
       </c>
       <c r="T36" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U36" s="25"/>
       <c r="V36" s="27" t="s">
@@ -17322,7 +17323,7 @@
       </c>
       <c r="S41" s="32"/>
       <c r="T41" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U41" s="25"/>
       <c r="V41" s="27"/>
@@ -17386,7 +17387,7 @@
         <v>148</v>
       </c>
       <c r="T42" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U42" s="25"/>
       <c r="V42" s="27"/>
@@ -17572,7 +17573,7 @@
         <v>247</v>
       </c>
       <c r="T45" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U45" s="25"/>
       <c r="V45" s="27" t="s">
@@ -17636,7 +17637,7 @@
         <v>247</v>
       </c>
       <c r="T46" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U46" s="25"/>
       <c r="V46" s="27" t="s">
@@ -17700,7 +17701,7 @@
         <v>247</v>
       </c>
       <c r="T47" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U47" s="25"/>
       <c r="V47" s="27" t="s">
@@ -17764,7 +17765,7 @@
         <v>247</v>
       </c>
       <c r="T48" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U48" s="25"/>
       <c r="V48" s="27" t="s">
@@ -18205,7 +18206,7 @@
       </c>
       <c r="S55" s="25"/>
       <c r="T55" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U55" s="25"/>
       <c r="V55" s="27"/>
@@ -18327,7 +18328,7 @@
       </c>
       <c r="S57" s="25"/>
       <c r="T57" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U57" s="25"/>
       <c r="V57" s="27"/>
@@ -18398,7 +18399,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C59" s="82">
         <v>43427</v>
@@ -18416,7 +18417,7 @@
         <v>523</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>37</v>
@@ -18463,7 +18464,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C60" s="82">
         <v>43427</v>
@@ -19077,7 +19078,7 @@
         <v>247</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>163</v>
@@ -19145,7 +19146,7 @@
         <v>247</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U70" s="5"/>
       <c r="V70" s="27" t="s">
@@ -19210,7 +19211,7 @@
         <v>247</v>
       </c>
       <c r="T71" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="27" t="s">
@@ -19925,7 +19926,7 @@
         <v>247</v>
       </c>
       <c r="T82" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U82" s="5"/>
       <c r="V82" s="26" t="s">
@@ -19992,7 +19993,7 @@
         <v>247</v>
       </c>
       <c r="T83" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
@@ -20057,7 +20058,7 @@
         <v>247</v>
       </c>
       <c r="T84" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="s">
@@ -20124,7 +20125,7 @@
         <v>247</v>
       </c>
       <c r="T85" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
@@ -20254,7 +20255,7 @@
         <v>247</v>
       </c>
       <c r="T87" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="27" t="s">
@@ -20584,7 +20585,7 @@
         <v>148</v>
       </c>
       <c r="T92" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U92" s="5"/>
       <c r="V92" s="27" t="s">
@@ -20647,7 +20648,7 @@
         <v>247</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>163</v>
@@ -20708,7 +20709,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="13"/>
       <c r="T94" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>366</v>
@@ -20769,7 +20770,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="5"/>
       <c r="T95" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="27"/>
@@ -20822,7 +20823,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="5"/>
       <c r="T96" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U96" s="5"/>
       <c r="V96" s="27"/>
@@ -21082,7 +21083,7 @@
         <v>247</v>
       </c>
       <c r="T100" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U100" s="5"/>
       <c r="V100" s="27" t="s">
@@ -21148,7 +21149,7 @@
         <v>247</v>
       </c>
       <c r="T101" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U101" s="5"/>
       <c r="V101" s="27" t="s">
@@ -21214,7 +21215,7 @@
         <v>247</v>
       </c>
       <c r="T102" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U102" s="5"/>
       <c r="V102" s="27" t="s">
@@ -21657,7 +21658,7 @@
         <v>247</v>
       </c>
       <c r="T109" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U109" s="5"/>
       <c r="V109" s="27" t="s">
@@ -21723,7 +21724,7 @@
         <v>247</v>
       </c>
       <c r="T110" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U110" s="5"/>
       <c r="V110" s="27" t="s">
@@ -21786,7 +21787,7 @@
         <v>247</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U111" s="27" t="s">
         <v>367</v>
@@ -22815,7 +22816,7 @@
       </c>
       <c r="S128" s="5"/>
       <c r="T128" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U128" s="5"/>
       <c r="V128" s="27" t="s">
@@ -22876,7 +22877,7 @@
         <v>247</v>
       </c>
       <c r="T129" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U129" s="5"/>
       <c r="V129" s="27"/>
@@ -22933,7 +22934,7 @@
         <v>247</v>
       </c>
       <c r="T130" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U130" s="5"/>
       <c r="V130" s="27"/>
@@ -23223,7 +23224,7 @@
         <v>247</v>
       </c>
       <c r="T135" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U135" s="2"/>
       <c r="V135" s="27"/>
@@ -23396,7 +23397,7 @@
       </c>
       <c r="S138" s="28"/>
       <c r="T138" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U138" s="27"/>
       <c r="V138" s="27" t="s">
@@ -23512,7 +23513,7 @@
       </c>
       <c r="S140" s="28"/>
       <c r="T140" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U140" s="27"/>
       <c r="V140" s="27" t="s">
@@ -23569,7 +23570,7 @@
       </c>
       <c r="S141" s="28"/>
       <c r="T141" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U141" s="27"/>
       <c r="V141" s="27" t="s">
@@ -24007,7 +24008,7 @@
         <v>247</v>
       </c>
       <c r="T149" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U149" s="28"/>
       <c r="V149" s="28"/>
@@ -24060,7 +24061,7 @@
         <v>247</v>
       </c>
       <c r="T150" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U150" s="28"/>
       <c r="V150" s="28"/>
@@ -24227,7 +24228,7 @@
         <v>247</v>
       </c>
       <c r="T153" s="41" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U153" s="28"/>
       <c r="V153" s="28"/>
@@ -24331,7 +24332,7 @@
         <v>462</v>
       </c>
       <c r="T155" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U155" s="28"/>
       <c r="V155" s="28"/>
@@ -24382,7 +24383,7 @@
         <v>462</v>
       </c>
       <c r="T156" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U156" s="28"/>
       <c r="V156" s="28"/>
@@ -24492,7 +24493,7 @@
         <v>247</v>
       </c>
       <c r="T158" s="41" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U158" s="55"/>
       <c r="V158" s="28"/>
@@ -24721,7 +24722,7 @@
         <v>247</v>
       </c>
       <c r="T162" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U162" s="5"/>
       <c r="V162" s="27"/>
@@ -24997,7 +24998,7 @@
         <v>247</v>
       </c>
       <c r="T167" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U167" s="5"/>
       <c r="V167" s="27" t="s">
@@ -26090,7 +26091,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="81" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C188" s="82">
         <v>43552</v>
@@ -26305,7 +26306,7 @@
         <v>247</v>
       </c>
       <c r="T191" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U191" s="5"/>
       <c r="V191" s="27"/>
@@ -26415,7 +26416,7 @@
         <v>651</v>
       </c>
       <c r="T193" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U193" s="5" t="s">
         <v>366</v>
@@ -26468,7 +26469,7 @@
         <v>247</v>
       </c>
       <c r="T194" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U194" s="31"/>
       <c r="V194" s="24"/>
@@ -26582,7 +26583,7 @@
         <v>247</v>
       </c>
       <c r="T196" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U196" s="5"/>
       <c r="V196" s="27"/>
@@ -26639,7 +26640,7 @@
         <v>247</v>
       </c>
       <c r="T197" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U197" s="5"/>
       <c r="V197" s="27"/>
@@ -26696,7 +26697,7 @@
         <v>247</v>
       </c>
       <c r="T198" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U198" s="5"/>
       <c r="V198" s="27"/>
@@ -26753,7 +26754,7 @@
         <v>247</v>
       </c>
       <c r="T199" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U199" s="5"/>
       <c r="V199" s="27"/>
@@ -26810,7 +26811,7 @@
         <v>247</v>
       </c>
       <c r="T200" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U200" s="5"/>
       <c r="V200" s="27"/>
@@ -26867,7 +26868,7 @@
         <v>247</v>
       </c>
       <c r="T201" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U201" s="5"/>
       <c r="V201" s="27"/>
@@ -26924,7 +26925,7 @@
         <v>247</v>
       </c>
       <c r="T202" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U202" s="5"/>
       <c r="V202" s="27"/>
@@ -26981,7 +26982,7 @@
         <v>247</v>
       </c>
       <c r="T203" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U203" s="5"/>
       <c r="V203" s="27"/>
@@ -27038,7 +27039,7 @@
         <v>247</v>
       </c>
       <c r="T204" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U204" s="5"/>
       <c r="V204" s="27"/>
@@ -27095,7 +27096,7 @@
         <v>247</v>
       </c>
       <c r="T205" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U205" s="5"/>
       <c r="V205" s="27"/>
@@ -27152,7 +27153,7 @@
         <v>247</v>
       </c>
       <c r="T206" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U206" s="5"/>
       <c r="V206" s="27" t="s">
@@ -27211,7 +27212,7 @@
         <v>247</v>
       </c>
       <c r="T207" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U207" s="5"/>
       <c r="V207" s="27"/>
@@ -27488,7 +27489,7 @@
         <v>247</v>
       </c>
       <c r="T212" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U212" s="5"/>
       <c r="V212" s="27"/>
@@ -27641,7 +27642,7 @@
         <v>247</v>
       </c>
       <c r="T215" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U215" s="5"/>
       <c r="V215" s="27"/>
@@ -27692,7 +27693,7 @@
         <v>247</v>
       </c>
       <c r="T216" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U216" s="5"/>
       <c r="V216" s="27"/>
@@ -27843,7 +27844,7 @@
         <v>247</v>
       </c>
       <c r="T219" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U219" s="5"/>
       <c r="V219" s="27"/>
@@ -27894,7 +27895,7 @@
         <v>247</v>
       </c>
       <c r="T220" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U220" s="5"/>
       <c r="V220" s="27"/>
@@ -27945,7 +27946,7 @@
         <v>247</v>
       </c>
       <c r="T221" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U221" s="5"/>
       <c r="V221" s="27"/>
@@ -28098,7 +28099,7 @@
         <v>247</v>
       </c>
       <c r="T224" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U224" s="5"/>
       <c r="V224" s="27"/>
@@ -28200,7 +28201,7 @@
         <v>247</v>
       </c>
       <c r="T226" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U226" s="5"/>
       <c r="V226" s="27"/>
@@ -28251,7 +28252,7 @@
         <v>462</v>
       </c>
       <c r="T227" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U227" s="5"/>
       <c r="V227" s="27"/>
@@ -28278,7 +28279,7 @@
         <v>523</v>
       </c>
       <c r="H228" s="72" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I228" s="13"/>
       <c r="J228" s="27"/>
@@ -28302,7 +28303,7 @@
         <v>462</v>
       </c>
       <c r="T228" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U228" s="5"/>
       <c r="V228" s="27"/>
@@ -28329,7 +28330,7 @@
         <v>523</v>
       </c>
       <c r="H229" s="72" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="27"/>
@@ -28353,7 +28354,7 @@
         <v>462</v>
       </c>
       <c r="T229" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U229" s="5"/>
       <c r="V229" s="27"/>
@@ -28364,7 +28365,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="54" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="C230" s="82">
         <v>43559</v>
@@ -28419,7 +28420,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="54" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C231" s="82">
         <v>43559</v>
@@ -28437,7 +28438,7 @@
         <v>523</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I231" s="13"/>
       <c r="J231" s="27"/>
@@ -28516,7 +28517,7 @@
         <v>462</v>
       </c>
       <c r="T232" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U232" s="5"/>
       <c r="V232" s="27"/>
@@ -28614,7 +28615,7 @@
         <v>247</v>
       </c>
       <c r="T234" s="27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U234" s="5"/>
       <c r="V234" s="27"/>
@@ -28625,7 +28626,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C235" s="82">
         <v>43570</v>
@@ -28643,7 +28644,7 @@
         <v>523</v>
       </c>
       <c r="H235" s="117" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I235" s="13"/>
       <c r="J235" s="27"/>
@@ -28672,7 +28673,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="54" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C236" s="82">
         <v>43570</v>
@@ -28690,7 +28691,7 @@
         <v>523</v>
       </c>
       <c r="H236" s="117" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I236" s="13"/>
       <c r="J236" s="27"/>
@@ -45215,7 +45216,7 @@
         <v>247</v>
       </c>
       <c r="T239" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U239" s="5"/>
       <c r="V239" s="27"/>
@@ -45260,7 +45261,7 @@
         <v>247</v>
       </c>
       <c r="T240" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U240" s="5"/>
       <c r="V240" s="27"/>
@@ -45893,15 +45894,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -45924,6 +45916,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
@@ -45943,14 +45944,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -45964,4 +45957,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/_files/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pivot" sheetId="13" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="14" r:id="rId1"/>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId2"/>
     <sheet name="Values" sheetId="2" r:id="rId3"/>
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="780">
   <si>
     <t>S.No.</t>
   </si>
@@ -6891,6 +6891,81 @@
     <t>MOS-21750
 MOS-22068</t>
   </si>
+  <si>
+    <t>Refer comments</t>
+  </si>
+  <si>
+    <t>MOS-24815, MOS-25102</t>
+  </si>
+  <si>
+    <t>MOS-25101</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Partner Management Module - Requirements, Design, API Specs</t>
+  </si>
+  <si>
+    <t>VID Concept change (with policies)</t>
+  </si>
+  <si>
+    <t>Device Onboarding Process Removal</t>
+  </si>
+  <si>
+    <t>User Onboarding Process Change - Removal of mapping of User-Machine</t>
+  </si>
+  <si>
+    <t>UX Finalization - Pre-registration</t>
+  </si>
+  <si>
+    <t>UX Enhancements - Re-visit UX for Pre-registration
+- UX analysis and basic typography and alignment fixes</t>
+  </si>
+  <si>
+    <t>UX Enhancements - Re-visit UX for Registration Client
+- UX analysis and basic typography and alignment fixes</t>
+  </si>
+  <si>
+    <t>Bootcamp Jan'19 - Demo and Presentation</t>
+  </si>
+  <si>
+    <t>- Support provided by 1 Architect, 2 BAs and 1 PM
+- JIRA Board: https://mosipid.atlassian.net/secure/RapidBoard.jspa?rapidView=23&amp;view=planning.nodetail</t>
+  </si>
+  <si>
+    <t>- Requirements Delay
+- Design Change
+- IDA &amp; ID Repo Changes</t>
+  </si>
+  <si>
+    <t>- Delay in finalization of Pre-registration UX
+- Support provided by 2 UX Designers and 2 BAs</t>
+  </si>
+  <si>
+    <t>On-hold</t>
+  </si>
+  <si>
+    <t>- Requirements gathering completed
+- Basic typography and alignment fixes Done
+- Support provided by 2 UX Designers, 1 BA and 1 developer</t>
+  </si>
+  <si>
+    <t>- Support provided by 1 Architect, 1 UX Designer, 1 BA and 1 PM</t>
+  </si>
+  <si>
+    <t>Additional Environments - 7 v/s 2 planned</t>
+  </si>
+  <si>
+    <t>Functional demo of all modules 
+- Day long demo from 10AM to 4PM per module, as requested by CPU team</t>
+  </si>
+  <si>
+    <t>- Support provided by 1 Architect, 4 Developers, 1 Tech Lead, 1 BA and 1 Tester for 3 days, per module (5 modules)</t>
+  </si>
+  <si>
+    <t>IV &amp; V - Early Support</t>
+  </si>
 </sst>
 </file>
 
@@ -7009,7 +7084,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7073,6 +7148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7303,7 +7384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7723,11 +7804,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7749,144 +7825,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -7912,8 +7882,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -7947,38 +7917,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Resham Chugani" refreshedDate="43720.798558680559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="242">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Resham Chugani" refreshedDate="43808.683957754627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="252">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:W244" sheet="MOSIP_Feature_Roadmap"/>
+    <worksheetSource ref="A2:W255" sheet="MOSIP_Feature_Roadmap"/>
   </cacheSource>
   <cacheFields count="23">
     <cacheField name="S.No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="242"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="253"/>
     </cacheField>
     <cacheField name="JIRA ID" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Date of Identification" numFmtId="15">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-01-08T00:00:00" maxDate="2019-05-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-01-08T00:00:00" maxDate="2019-06-16T00:00:00"/>
     </cacheField>
     <cacheField name="Reference_x000a_(User Story/Document, Version, Section, REQ ID, Page)" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Module" numFmtId="0">
-      <sharedItems count="12">
-        <s v="Registration Client"/>
-        <s v="ID Authentication"/>
-        <s v="Registration Processor"/>
-        <s v="resident portal, Dashboards, Reports"/>
-        <s v="DevOps"/>
-        <s v="Pre-registration"/>
-        <s v="Kernel"/>
-        <s v="Admin/_x000a_Reporting"/>
-        <s v="Technology"/>
-        <s v="Partner Management Portal"/>
-        <s v="ID-Repo"/>
-        <s v="IDA"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="New / _x000a_De-scoped" numFmtId="0">
       <sharedItems/>
@@ -8014,54 +7971,23 @@
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-11-15T00:00:00" maxDate="2019-04-05T00:00:00"/>
     </cacheField>
     <cacheField name="CUT Effort (PDs)" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="60" count="31">
-        <n v="36"/>
-        <s v="4"/>
-        <n v="12"/>
-        <n v="10"/>
-        <n v="35"/>
-        <n v="2"/>
-        <n v="30"/>
-        <n v="1"/>
-        <n v="0"/>
-        <s v="NA"/>
-        <n v="20"/>
-        <s v="24"/>
-        <s v="48"/>
-        <m/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="15"/>
-        <s v="0"/>
-        <n v="60"/>
-        <n v="18"/>
-        <n v="40"/>
-        <n v="4"/>
-        <s v="6"/>
-        <s v="30"/>
-        <s v="10"/>
-        <s v="20"/>
-        <n v="3"/>
-        <s v="8"/>
-        <s v="19"/>
-        <s v="2"/>
-        <n v="8"/>
-      </sharedItems>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
     </cacheField>
     <cacheField name="Effort (PDs) _x000a_Incl. of Testing" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="90"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="170"/>
     </cacheField>
     <cacheField name="Estimated" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="7">
         <s v="To Do"/>
         <s v="Done"/>
         <s v="NA"/>
         <s v="Requirement Pending"/>
         <s v="De-scoped"/>
         <s v="In Progress"/>
+        <s v="On-hold"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sprint" numFmtId="0">
@@ -8083,13 +8009,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="242">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="252">
   <r>
     <n v="1"/>
     <s v="MOS-12185"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Mode of login to client: _x000a_Backlog: Support multifactor authentication using username + password and/or OTP, fingerprint, iris._x000a_Morocco FRS: Single factor authentication using either password or OTP_x000a_Query log review: Multifactor authentication using username + password and/or OTP, fingerprint, iris. _x000a__x000a_Also applies to operator authentication while submitting a registration."/>
@@ -8101,7 +8027,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="0"/>
+    <n v="36"/>
     <n v="54"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -8114,7 +8040,7 @@
     <s v="MOS-16040"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Mode of login to client: Stubbed Implementation_x000a_Backlog: Support multifactor authentication using username + password and/or OTP, fingerprint, iris._x000a_Morocco FRS: Single factor authentication using either password or OTP_x000a_Query log review: Multifactor authentication using username + password and/or OTP, fingerprint, iris. _x000a__x000a_Also applies to operator authentication while submitting a registration."/>
@@ -8126,7 +8052,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="1"/>
+    <s v="4"/>
     <s v="6"/>
     <s v="NA"/>
     <x v="1"/>
@@ -8139,7 +8065,7 @@
     <s v="MOS-12186"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Fingerprint capture during registration:_x000a_Backlog: In scope_x000a_Morocco FRS: Not in scope_x000a_Query log review: In MVP"/>
@@ -8151,7 +8077,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="2"/>
+    <n v="12"/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8164,7 +8090,7 @@
     <s v="MOS-16024"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Fingerprint capture during registration: With Stubbed Implementation for FP_x000a_Backlog: In scope_x000a_Morocco FRS: Not in scope_x000a_Query log review: In MVP_x000a_"/>
@@ -8176,7 +8102,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="NA"/>
     <x v="2"/>
@@ -8189,7 +8115,7 @@
     <s v="MOS-12187"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Best finger detection in registration receipt: _x000a_Backlog: Indicate the finger with best quality score._x000a_Morocco FRS: Not in scope._x000a_Query log review: Indicate a 1-10 ranking of fingers by quality scores. _x000a_"/>
@@ -8201,7 +8127,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="4"/>
+    <n v="35"/>
     <n v="52.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -8214,7 +8140,7 @@
     <s v="MOS-16016"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Best finger detection in registration receipt: With Stubbed Implementation for FP quality_x000a_Backlog: Indicate the finger with best quality score._x000a_Morocco FRS: Not in scope._x000a_Query log review: Indicate a 1-10 ranking of fingers by quality scores. _x000a_"/>
@@ -8226,7 +8152,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="5"/>
+    <n v="2"/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8239,7 +8165,7 @@
     <s v="MOS-12188"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Face photograph validation during registration:_x000a_Backlog: Build validation for ICAO standards._x000a_Morocco FRS: Not in scope_x000a_Query log review: Build for ICAO plus one other standard. "/>
@@ -8251,7 +8177,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="6"/>
+    <n v="30"/>
     <n v="45"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8264,7 +8190,7 @@
     <s v="MOS-16008"/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New  "/>
     <s v="Functional"/>
     <s v="Face photograph validation during registration: With Stubbed data for ICAO flag_x000a_Backlog: Build validation for ICAO standards._x000a_Morocco FRS: Not in scope_x000a_Query log review: Build for ICAO plus one other standard. "/>
@@ -8276,7 +8202,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="7"/>
+    <n v="1"/>
     <n v="1.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -8289,7 +8215,7 @@
     <m/>
     <d v="2018-09-19T00:00:00"/>
     <s v="Query log review on 19-Sep-18 - Refer &lt;Master_Query_Log&gt; _x000a_in PwS"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Client administration / registration / configuration: The feature is scoped but not as part of a separate application. "/>
@@ -8301,7 +8227,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="2"/>
@@ -8314,7 +8240,7 @@
     <m/>
     <d v="2018-09-19T00:00:00"/>
     <s v="FRS review of Morocco FRS _x000a_&lt;Annexure D - Functional Requirement Specification dtd 15062018 [F]&gt;"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <m/>
     <s v="Not a CR,but these are baseline requirements._x000a_(Placeholder for features not covered above which are present in backlog but not in Morocco FRS)_x000a_For example - Translation and transliteration, Introducer concept, End of day supervisor approval, Registration correction."/>
@@ -8326,7 +8252,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <s v="0"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8339,7 +8265,7 @@
     <s v="MOS-13190"/>
     <d v="2018-10-22T00:00:00"/>
     <s v="-RFP_Selection of SI_NPR_Morocco volume I v5.6"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="1. MOSIP to have the ability to configure scenarios when individual to be notified (Through a periodic job) to update biometrics:_x000a_-Child turns 5/15_x000a_-Authentication cosistently fails beyond x (configurable) times of being below the defined NFIQ threshold (configurable)_x000a__x000a_Reference from Query Log:_x000a_Page 42 of the RFP for SI states:&quot;RNP may maintain a threshold for quality of biometrics and in case the quality of captured biometrics does not satisfy the threshold, the RNP may intimate the resident to update their biometrics.&quot;_x000a__x000a_Does MOSIP scope include the requirement to intimate a resident to update their biometrics if quality is below threshold? As we understand, this can be triggered if a high NFIQ score is identified during authentication but the authentication fails"/>
@@ -8351,7 +8277,7 @@
     <m/>
     <s v="1. Should all the biometric devices  send an NFIQ score or any other quality standards should be adhered to and send in the authentication request?_x000a_2. The intimation is to be triggered for the scenario below: configured number of authentication failure cases consequtively for a UIN and for a configure high NFIQ score. Please confirm_x000a_The Question is in reference to version 2 Implementation"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="9"/>
+    <s v="NA"/>
     <m/>
     <m/>
     <x v="0"/>
@@ -8364,7 +8290,7 @@
     <m/>
     <d v="2018-10-24T00:00:00"/>
     <s v="Discussion with GoM/PwC on 24-Oct-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="1.Local duplicate check on client to include iris and face_x000a_2. Mode of officer authentication at end of each registration on client: _x000a_Backlog: Support multifactor authentication using username + password and/or OTP, fingerprint - Iris and Face is a new inclusion as requested by GoM/PwC"/>
@@ -8376,7 +8302,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8389,7 +8315,7 @@
     <m/>
     <d v="2018-10-24T00:00:00"/>
     <s v="Discussion with GoM/PwC on 24-Oct-18"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="CNIE Validation/External Data Enrichment Module:_x000a_1. Inclusion of step for external system integration_x000a_2. Integration with CNIE, EC and Foreign Registration for exchange of information_x000a_3. Module with User Interface for manual validation process_x000a_Refer the email of the GoM call - Minutes"/>
@@ -8401,7 +8327,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="11"/>
+    <s v="24"/>
     <n v="36"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8414,7 +8340,7 @@
     <m/>
     <d v="2018-10-24T00:00:00"/>
     <s v="Discussion with GoM/PwC on 24-Oct-18"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="CNIE Finger Print Authentication:_x000a_1. Integration with CNIE for obtaining the fingerprint data_x000a_(a) in the process of demographic validation check with CNIE and _x000a_(b) Biometric Update in CNIE_x000a_2. Integration of authentication solution with Fingerprint SDK _x000a_3. Decryption, Quality Analysis, Extraction and Loading features for fingerprints using the received fingerprint data from CNIE and store in ID repository_x000a_4. Testing of the above functionalities in the five CSCs(service center)"/>
@@ -8426,7 +8352,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="0"/>
+    <n v="36"/>
     <n v="54"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8439,7 +8365,7 @@
     <m/>
     <d v="2018-10-24T00:00:00"/>
     <s v="Discussion with GoM/PwC on 24-Oct-18"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Generator:_x000a_• Common NIP generator between EC and RNP_x000a_• NIP generator outside IDMS_x000a_• NIP generator with a density of 5% for non-guess ability _x000a_• Incorporation of NIP logic (refer above) within NIP generator_x000a_• APIs for integration with EC_x000a_• Porting of the already generated NIPs_x000a_• For those children which have been allocated NIPs by EC, the same numbers should get allocated and new numbers should not get allocated_x000a_• The already generated numbers by EC should not be allocated to anyone else_x000a_• Testing of integrated generator"/>
@@ -8451,7 +8377,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="12"/>
+    <s v="48"/>
     <n v="72"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8464,7 +8390,7 @@
     <s v="NA"/>
     <d v="2018-10-24T00:00:00"/>
     <s v="Discussion with GoM/PwC on 24-Oct-18"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Face De-duplication:_x000a_Face ID comparison (Face deduplication) has not been considered in scope of MOSIP - Tech board to advise._x000a_- If it is required, MOSIP can provide an interface to send the photo (Maybe in bytes) as per ICAO standards. However, MT will need help from tech board on defining the face specs which can be consumed by GoM to interact with the BSP. GoM/SI will need to ensure the BSP supports face deduplication. "/>
@@ -8476,7 +8402,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="2"/>
@@ -8489,7 +8415,7 @@
     <s v="MOS-1071"/>
     <d v="2018-10-24T00:00:00"/>
     <s v="Discussion with GoM/PwC on 24-Oct-18"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="APIs:_x000a_• MOSIP should provide pull APIs for printing agency _x000a_&gt; MOSIP should have a queue with PDF files ready for print - TBD with tech team_x000a_• Printing agency should be able to confirm receipt of pulled information_x000a_• MOSIP agency should maintain a flag and timestamp of information being pulled by printing agency_x000a_"/>
@@ -8501,7 +8427,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8514,7 +8440,7 @@
     <m/>
     <m/>
     <s v="Discussion with Shrikant_Query Log Addressal"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Update Appointment Scheduling:_x000a_- Ability to schedule appointments on Resident Services for UIN updates"/>
@@ -8526,7 +8452,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="3"/>
@@ -8539,7 +8465,7 @@
     <m/>
     <m/>
     <s v="Discussion with Shrikant_Query Log Addressal"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Update Approval:_x000a_- Ability to facilitate approval of UIN update requests received through resident service portal"/>
@@ -8551,7 +8477,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="3"/>
@@ -8564,7 +8490,7 @@
     <s v="MOS-12193"/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Mark applicant as Foreigner/Non-Foreigner:_x000a_- Marking an individual as foreigner/non-foreigner during registration_x000a_- Capturing docs/data accordingly"/>
@@ -8576,7 +8502,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8589,7 +8515,7 @@
     <s v="MOS-14566"/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Verified/Non-Verified:_x000a_- Marking an individual's DoB as verified/non-verified"/>
@@ -8601,7 +8527,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="1"/>
+    <s v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -8614,7 +8540,7 @@
     <s v="MOS-14565"/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Verified/Non-Verified:_x000a_- Marking an individual's DoB as verified/non-verified"/>
@@ -8626,7 +8552,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="1"/>
+    <s v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -8639,7 +8565,7 @@
     <s v="MOS-1086"/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Manual Activation/De-activation of UIN:_x000a_a. Manual Activation of UIN (By admin through backend – EG: xls)_x000a_b. Manual De-activation of UIN (By admin through backend – EG: xls)_x000a_c. Manual Re-activation of UIN (By admin through backend – EG: xls)_x000a_"/>
@@ -8651,7 +8577,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8664,7 +8590,7 @@
     <s v="MOS-1087"/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Manual Activation/De-activation of UIN:_x000a_a. Manual Activation of UIN (By admin through backend – EG: xls)_x000a_b. Manual De-activation of UIN (By admin through backend – EG: xls)_x000a_c. Manual Re-activation of UIN (By admin through backend – EG: xls)_x000a_"/>
@@ -8676,7 +8602,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8689,7 +8615,7 @@
     <m/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Discussion with Anadi on Consolidated list of Configs and Process workflow that can be configured_x000a_Mail: Dtd 14-Nov-18 (MT to Anadi)"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Replace VID:_x000a_Ability of the UIN holder to invalidate an active VID, on the web portal"/>
@@ -8701,7 +8627,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="3"/>
@@ -8714,7 +8640,7 @@
     <m/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Digital Signature for Offline UIN Verification:_x000a_Include digital signature as part of the e-UIN generated, to facilitate offline UIN verification using QR code"/>
@@ -8726,7 +8652,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="3"/>
@@ -8739,7 +8665,7 @@
     <s v="MOS-8641"/>
     <d v="2018-10-29T00:00:00"/>
     <s v="Response to GoM old PB _x000a_Document: &lt;RE: Observations on MOSIP Technology Documents - Response to GoM/PwC Queries&gt; _x000a_Mail: Dtd 29-Oct-18 (MT to Shrikant)"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Marking Packets for Deletion:_x000a_MOSIP should mark registration packets for deletion on successful UIN generation or 45 days, which ever is later."/>
@@ -8751,7 +8677,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8764,7 +8690,7 @@
     <s v="MOS-12112"/>
     <d v="2018-11-14T00:00:00"/>
     <s v="Discussion with Anadi on Consolidated list of Configs and Process workflow that can be configured_x000a_Mail: Dtd 14-Nov-18 (MT to Anadi)"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Configure Packet Size:_x000a_Include ability to configure the registration packet size"/>
@@ -8776,7 +8702,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="14"/>
+    <n v="5"/>
     <n v="7.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8789,7 +8715,7 @@
     <m/>
     <d v="2018-11-14T00:00:00"/>
     <s v="Discussion with Anadi on Consolidated list of Configs and Process workflow that can be configured_x000a_Mail: Dtd 14-Nov-18 (MT to Anadi)"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Retrieve VID:_x000a_Ability of UIN holder to retrieve all active VIDs on the web portal"/>
@@ -8801,7 +8727,7 @@
     <s v="Approved  "/>
     <s v="Shrikant"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="2"/>
@@ -8814,7 +8740,7 @@
     <m/>
     <d v="2018-11-14T00:00:00"/>
     <s v="Discussion with Anadi"/>
-    <x v="4"/>
+    <s v="DevOps"/>
     <s v="New"/>
     <s v="Design"/>
     <s v="Infrastructure as Code - IAAC:_x000a_1. As per the SOW, we had planned to setup 2 environments – Dev and QA. A new request to have additional infrastructure created and codify the same"/>
@@ -8826,7 +8752,7 @@
     <s v="Approved"/>
     <s v="Anadi"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="6"/>
+    <n v="30"/>
     <n v="45"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8839,7 +8765,7 @@
     <s v="MOS-9602"/>
     <d v="2018-11-14T00:00:00"/>
     <s v="MOS-9602"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="id Definition Implementation:_x000a_1. Registration-processor-core update with new structure of PacketMetaInfo.json_x000a_2. packet-validator update with new structure of PacketMetaInfo.json_x000a_3. packet-info-storage-service update with new structure of PacketMetaInfo.json"/>
@@ -8851,7 +8777,7 @@
     <s v="Approved"/>
     <s v="Anadi"/>
     <d v="2018-11-15T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8864,7 +8790,7 @@
     <s v="NA"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Booking Appointment:_x000a_1. Update UX - Recommend drag and drop approach to book time slots, VD update based on removal of group concept, other changes in VDs"/>
@@ -8876,7 +8802,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -8889,7 +8815,7 @@
     <m/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Mapping of Machines with Devices at Registration Centre:_x000a_1. The mapping of machines with devices seems redundant. Since the machine to device mapping data is not carried in the registration packet and there is no device to machine mapping validation on server side, this requirement is not valid_x000a_12/2/19:This has been descoped"/>
@@ -8901,7 +8827,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="4"/>
@@ -8914,7 +8840,7 @@
     <s v="MOS-12199"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Un-lock Registration Client Account post un-successful login:_x000a_1. Include: Supervisor/Admin’s ability to unlock Registration Officer’s account in case it is locked, due to x incorrect login attempts"/>
@@ -8926,7 +8852,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="16"/>
+    <n v="15"/>
     <n v="22.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -8939,7 +8865,7 @@
     <s v="MOS-13162"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh - MOS-9749"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Multi-Factor Authentication:_x000a_1. In case of multi-factor authentication, MOSIP should respond back with eKYC data based on alternate preferred business rules, as preferred by SI_x000a_Current implementation sends a positive response only if all configured parameters match_x000a_Include feasibility for a Country/SI to accommodate business rule to send a positive response if 2 out of 3 factors match, to clear authentication – Without Code change by SI"/>
@@ -8951,7 +8877,7 @@
     <s v="This is the current implementation, assuming all authentication types has equal weightage, we will perform AND of all input Auth Types."/>
     <m/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="1"/>
@@ -8964,7 +8890,7 @@
     <s v="MOS-13162"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Configure preferred Matching Strategy for Authentication:_x000a_1. TSP Config to be included – The matching strategy/threshold per TSP should be configurable (EG: Exact vs. partial match per parameter – Name/address)_x000a_- Mode of Matching Strategy should be configurable by SI"/>
@@ -8976,7 +8902,7 @@
     <s v="Considering only exact match for Demo Auth, both partial and phonetics are to be disabled and only validations and configurations for exact match will be added"/>
     <s v="Currently we are supporting only exact match. What is the high-level business logic when phonetics match will be  invoked?. Do we need to define a set of business rules by which phonetics match will be defined_x000a__x000a_The Question is in reference to version 2 Implementation"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -8989,7 +8915,7 @@
     <s v="MOS-13162"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Demographic (Address) Authentication:_x000a_1. Algorithm for various address fields should have specific weightage – EG: Postal Code threshold should be 100% vs. address Line 1 could be &lt;60%_x000a_Current Implementation: No weightage is provided to each field but exact match strategy is adopted_x000a_2. Response should also provide a confidence score, based on the weightage logic_x000a_Current Implementation: No confidence score is provided_x000a_3. Align Demographic (address) authentication algorithm with Demographic Dedupe algorithm"/>
@@ -9001,7 +8927,7 @@
     <s v="Will be taken care as part of S.No. 33"/>
     <m/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="1"/>
@@ -9014,7 +8940,7 @@
     <s v="MOS-13162"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Sprint 5 Demo Feedback from Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Phonetics Match:_x000a_1.Include ability to configure preferred matching strategy by means of placing the preferred algorithm in a jar file vs. a code change by SI_x000a_- Current Implementation: Algorithm is part of the code with limited matching strategies. SI is expected to write code for preferred strategies"/>
@@ -9026,7 +8952,7 @@
     <s v="Will be taken care as part of S.No. 33"/>
     <m/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="1"/>
@@ -9039,7 +8965,7 @@
     <s v="MOS-790"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Requirements Elicitation Phase"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Login with Username/Password:_x000a_1. This is not a high priority requirement and can be moved to v2"/>
@@ -9051,7 +8977,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="0"/>
@@ -9064,7 +8990,7 @@
     <s v="MOS-5482"/>
     <d v="2018-11-26T00:00:00"/>
     <s v="Requirements Elicitation Phase"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="12/2-Karthik to give estimates as moved from descoped to new_x000a_Introducer Concept:_x000a_1. This is not a high priority requirement and should be moved to v2"/>
@@ -9076,7 +9002,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="17"/>
+    <s v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="0"/>
@@ -9089,7 +9015,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="RID Correction:_x000a_1. This is not a valid requirement and should be de-scoped from MOSIP"/>
@@ -9101,7 +9027,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -9114,7 +9040,7 @@
     <s v="MOS-18117"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="12/2:Needs clarity_x000a_Lost UIN:_x000a_1. This is not a valid requirement and should be de-scoped from MOSIP"/>
@@ -9126,7 +9052,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="17"/>
+    <s v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="1"/>
@@ -9139,7 +9065,7 @@
     <s v="MOS-1082"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Quality Check of Individual's Data:_x000a_1. Quality Check should not be a manual process_x000a_2. It should be automated (Machine Learning based)_x000a_3. It should be the first step when the packet is received_x000a_4. It should involve verification of:_x000a_a. Photo_x000a_- Age check_x000a_- Gender check_x000a_- Human face_x000a_- One face_x000a_- Liveness detection of photograph_x000a_b. Document_x000a_- OCR - Extract data from document (EG: Name, DOB) and match against demographic details provided_x000a_-  Check document authenticity_x000a_c. Check Biometrics:_x000a_- Finger quality checks: Real finger, Of the same person_x000a_"/>
@@ -9151,7 +9077,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="18"/>
+    <n v="60"/>
     <n v="90"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9164,7 +9090,7 @@
     <s v="MOS-8460"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Implement Finger Print Quality Checks to categorize FP as Real Finger, Finger of Same Person"/>
@@ -9176,7 +9102,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="18"/>
+    <n v="60"/>
     <n v="90"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9189,7 +9115,7 @@
     <s v="MOS-1081"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Implement OCR Validation in ID Object for Quality Check"/>
@@ -9201,7 +9127,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="18"/>
+    <n v="60"/>
     <n v="90"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9214,7 +9140,7 @@
     <s v="MOS-1097"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Deduplication:_x000a_1. Implement Multi-ABIS solution_x000a_2. Create dummy ABIS_x000a_4. Include manual adjudication after biometric dedupe_x000a_5. Ability of system to receive scores for face dedupe to derive the composite score (ABIS to perform face dedupe on packets identified as duplicates post demo/biometric dedupe)"/>
@@ -9226,7 +9152,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="18"/>
+    <n v="60"/>
     <n v="90"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9239,7 +9165,7 @@
     <s v="MOS-11897"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Deduplication:_x000a_1. Create dummy ABIS"/>
@@ -9251,7 +9177,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="19"/>
+    <n v="18"/>
     <n v="27"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9264,7 +9190,7 @@
     <s v="MOS-16105"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Deduplication:_x000a_1. Include manual adjudication after demographic dedupe"/>
@@ -9276,7 +9202,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9289,7 +9215,7 @@
     <s v="NA"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Deduplication:_x000a_1. MOSIP to be capable of receiving scores for face dedupe to derive the composite score &gt; ABIS to perform face dedupe on packets identified as duplicates post demo/biometric dedupe"/>
@@ -9301,7 +9227,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="2"/>
@@ -9314,7 +9240,7 @@
     <s v="MOS-13137"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Demographic Deduplication:_x000a_1. Inclusion of phonetics match for name in demographic dedupe algorithm - Usage of SoundEx"/>
@@ -9326,7 +9252,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="14"/>
+    <n v="5"/>
     <n v="7.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9339,7 +9265,7 @@
     <s v="MOS-12165"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Storage of Biometrics as Images:_x000a_1. MOSIP should store the actual biometric images instead of minutiae "/>
@@ -9351,10 +9277,10 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <s v="0"/>
     <s v="NA"/>
-    <x v="5"/>
+    <x v="1"/>
     <s v="NA"/>
     <s v="Since FMR is only in V1, it was already factored while in V1 estimates, hence no estimates needs to be added for V1 "/>
     <m/>
@@ -9364,7 +9290,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Biometrics for Minors - Workflow:_x000a_1. MOSIP should capture biometrics for minors and have a separate workflow around it (Less/different rules as compared to adults)"/>
@@ -9376,7 +9302,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="17"/>
+    <s v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -9389,7 +9315,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="VID Generation Concept:_x000a_1. VID concept should be as per aadhaar guidelines vs. given requirement of multiple active VIDs at a given point_x000a_a. Aadhaar VID is not consumption based for expiry_x000a_b. Multiple VIDs can be generated_x000a_c. No validity to a VID generated_x000a_d. On generation of new VID, previous one is invalidated_x000a_e. One VID can be used with multiple TSPs_x000a_f. MOSIP to implement as per aadhaar principle, as above_x000a_g. SI can implement as preferred - MOSIP to build hooks for other preferences"/>
@@ -9401,7 +9327,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="0"/>
@@ -9414,7 +9340,7 @@
     <s v="MOS-12984"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Update UIN:_x000a_1. MOSIP should allow to configure which fields can be updated through portal vs. at the registration Centre (Name/DoB/Address/Phone/Email)"/>
@@ -9426,7 +9352,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="2"/>
+    <n v="12"/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9439,7 +9365,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="3"/>
+    <s v="resident portal, Dashboards, Reports"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Lock UIN:_x000a_1. MOSIP should allow UIN holder to lock UIN for authentication and further un-lock if required"/>
@@ -9451,7 +9377,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="0"/>
     <m/>
     <x v="0"/>
@@ -9464,7 +9390,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="User Onboarding - Login using QR Code through Mobile:_x000a_1. Usage of QR codes through mobile for login to registration Client"/>
@@ -9476,7 +9402,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="17"/>
+    <s v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -9489,7 +9415,7 @@
     <s v="MOS-1206"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Completed already in MOS 1206 and MOS 1330_x000a_User Onboarding - Remote mapping of user to Machine:_x000a_1. Admin registers the users. Further the RO should be able to onboard himself without the requirement of a SPVR/Admin as an entry point"/>
@@ -9501,7 +9427,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <s v="0"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9514,7 +9440,7 @@
     <s v="MOS-1330"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="User Onboarding - Remote mapping of user to Machine:_x000a_1. Admin registers the users. Further the RO should be able to onboard himself without the requirement of a SPVR/Admin as an entry point"/>
@@ -9526,7 +9452,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <s v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9539,7 +9465,7 @@
     <s v="MOS-13661"/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Geo-location Capture using GPS:_x000a_1. Usage of phones for GPS vs. GPS on machine"/>
@@ -9551,7 +9477,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="20"/>
+    <n v="40"/>
     <n v="60"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9564,7 +9490,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Registration Client on Exclusive Devices:_x000a_1. Dongle based approach vs. running client on exclusive devices (Linux based) procured for registration only - EG: Chromebook"/>
@@ -9576,7 +9502,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="17"/>
+    <s v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -9589,7 +9515,7 @@
     <m/>
     <d v="2018-11-23T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Whitelisted Station Concept:_x000a_1. This refers to a station that can execute features which other stations cannot do (Update name/DoB beyond the stipulated restriction)_x000a_2. This would lead to configurations at station (Registration Centre) level"/>
@@ -9601,7 +9527,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="17"/>
+    <s v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -9614,7 +9540,7 @@
     <s v="MOS-9712"/>
     <d v="2018-11-28T00:00:00"/>
     <s v="Sprint 7 story grroming feedback from Ramesh - 28Nov'18"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="ID Length Change:_x000a_1. Update maximum length of Machine ID in DB from 36 to 10_x000a_2. Update maximum length of Registration Centre ID in DB from 36 to 10_x000a_3. Update maximum length of RID in DB from 28 to 39_x000a_4. Please confirm the length for Device ID to be 36"/>
@@ -9626,7 +9552,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9639,7 +9565,7 @@
     <s v="MOS-1155"/>
     <d v="2018-11-28T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Face Authentication:_x000a_1. Face authentication can be moved to a later version of MOSIP and is out of scope for v1"/>
@@ -9651,7 +9577,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="1"/>
@@ -9664,7 +9590,7 @@
     <s v="MOS-11855"/>
     <d v="2018-11-28T00:00:00"/>
     <s v="Discussion with Vivek Raghavan"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Virus Scan:_x000a_1. Virus scan should be performed before and after decryption of registration packet, during processing"/>
@@ -9676,7 +9602,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9689,7 +9615,7 @@
     <s v="NA"/>
     <d v="2018-11-28T00:00:00"/>
     <s v="Internal requirement evaluation"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="ID Validation Components de-scoped:_x000a_The following components have been de-scoped as there is no valid use-case:_x000a_1. Token ID Validation_x000a_2. Static PIN Validation_x000a_3. Registration Center ID Validation_x000a_4. Machine ID Validation"/>
@@ -9701,7 +9627,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <m/>
     <x v="4"/>
@@ -9714,7 +9640,7 @@
     <s v="NA"/>
     <d v="2018-11-28T00:00:00"/>
     <s v="Requirements Elicitation Discussion with Shrikant_Email dated 14Nov18 on &quot;ID Generation&quot;"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Static PIN Generation:_x000a_1. This has been de-scoped as the Resident is expected to set it up in resident portal"/>
@@ -9726,7 +9652,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-06T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <m/>
     <x v="4"/>
@@ -9739,7 +9665,7 @@
     <s v="MOS-13156"/>
     <d v="2018-12-06T00:00:00"/>
     <s v="Query log review with Anadi/Ramesh (JIRA) on 06-Dec-18"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="License Key Generation:_x000a_1. License key generation to be invoked through admin portal with an approval process &gt; Key to be associated to the TSP ID &gt; TSP should have a mechanism to access the key_x000a_2. MOSIP should support multiple license keys per TSP. There will be a separate license key per use case / application with associated policy_x000a_3. Once a TSP is authorized they should ideally have a self-service (TSP Portal) mechanism to get their keys, and regenerate them on need basis. In the absence of a Self-Service portal, it should be possible for the admin to generate the key and email it to the TSP. This can be done as part of the approval process, as well as on an ad hoc basis when the key needs to be replaced"/>
@@ -9751,7 +9677,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="20"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9764,7 +9690,7 @@
     <s v="MOS-12176"/>
     <d v="2018-12-06T00:00:00"/>
     <s v="GoM Requirements"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="OCR as part of Document Upload:_x000a_1. As per GoM, MOSIP should support quality check of documents during document upload._x000a_Current Implementation: MOSIP will perform basic file validations like file size and file format_x000a_New requirement as per discussions with Shrikant: MOSIP should support OCR as part of quality check of documents during document upload."/>
@@ -9776,7 +9702,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="6"/>
+    <n v="30"/>
     <n v="45"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9789,7 +9715,7 @@
     <s v="MOS-13147"/>
     <d v="2018-12-06T00:00:00"/>
     <s v="GoM Requirements"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="OCR as part of Document Upload:_x000a_1. As per GoM, MOSIP should support quality check of documents during document upload._x000a_Current Implementation: MOSIP will perform basic file validations like file size and file format_x000a_New requirement as per discussions with Shrikant: MOSIP should support OCR as part of quality check of documents during document upload."/>
@@ -9801,7 +9727,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="20"/>
+    <n v="40"/>
     <n v="56"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -9814,7 +9740,7 @@
     <s v="MOS-12961"/>
     <d v="2018-12-12T00:00:00"/>
     <s v="Ancillary process flow reviwe with Shrikant/Ramesh:_x000a_Refer MoM dated: 12-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Packet Upload:_x000a_a. Online Mode:_x000a_i. Registration completed and Packet created (With/Without EoD Process) _x000a_ii. Initiate Sync from Client to send RID details to Server _x000a_iii. Server to acknowledge_x000a_iv. On successful response of ack. From Server, Client to mark packet as “Ready for upload”  and initiate auto-upload of packet_x000a_b. Offline Mode/Low Bandwidth Connection:_x000a_i. Registration completed and Packet created (With/Without EoD Process) _x000a_ii. Initiate Sync from Client to send RID details to Server - If connection available_x000a_iii. Server to acknowledge_x000a_iv. On successful response of ack. from Server, Client to mark packet as “Ready for upload” _x000a_v. Packets to be extracted to an external hard drive_x000a_vi. Packets to be manually uploaded to server"/>
@@ -9826,7 +9752,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-12T00:00:00"/>
-    <x v="2"/>
+    <n v="12"/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9839,7 +9765,7 @@
     <s v="MOS-12874"/>
     <d v="2018-12-12T00:00:00"/>
     <s v="Ancillary process flow reviwe with Shrikant/Ramesh:_x000a_Refer MoM dated: 12-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Done as MOS 12874 _x000a_EoD Process:_x000a_a. Provide ability to configure if EoD process is required/not (Turn On/Off)"/>
@@ -9851,7 +9777,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-12T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9864,7 +9790,7 @@
     <s v="MOS 1204"/>
     <d v="2018-12-17T00:00:00"/>
     <s v="Sprint 6 Demo Feedback from Ramesh/Shrikant/Krishnan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Done as MOS 1204_x000a_Pre-registration Data Download:_x000a_1. In online mode, on input of PRID, system should trigger an additional validation to check if pre-registration data available is the latest/updated data &gt; Fetch latest data &gt; Override existing downloaded data_x000a_2. In offline mode, on input of PRID, system to fetch the existing downloaded pre-registration data &gt; Modifications can be made if required (No change)"/>
@@ -9876,7 +9802,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-17T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9889,7 +9815,7 @@
     <s v="MOS-13265"/>
     <d v="2018-12-17T00:00:00"/>
     <s v="Sprint 6 Demo Feedback from Ramesh/Shrikant/Krishnan"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Trigger Notification:_x000a_1. Provide an option to add additional Mobile numbers/e-mail IDs to trigger registration confirmation notification to additional recipients as required_x000a_Assumptions:_x000a_- To multiple email IDs and/or Mobile Numbers_x000a_- Audit but not store or map additional IDs/Numbers to applicant_x000a_- Do not pre-populate the additional IDs/Numbers during Registration_x000a_- Process should be configurable"/>
@@ -9901,7 +9827,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9914,7 +9840,7 @@
     <s v="MOS-12989"/>
     <d v="2018-12-17T00:00:00"/>
     <s v="Sprint 6 Demo Feedback from Ramesh/Shrikant/Krishnan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Trigger Notification:_x000a_1. Provide an option to add additional Mobile numbers/e-mail IDs to trigger pre-registration confirmation notification to additional recipients as required_x000a_Assumptions:_x000a_- To multiple email IDs and/or Mobile Numbers_x000a_- Audit but not store or map additional IDs/Numbers to applicant_x000a_- Do not pre-populate the additional IDs/Numbers during Registration_x000a_- Process should be configurable"/>
@@ -9926,7 +9852,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9939,7 +9865,7 @@
     <m/>
     <d v="2018-12-20T00:00:00"/>
     <s v="Discussion with Sanjay Jain: 13-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="DoB Verified/Not Verified Field:_x000a_- UI level the field “DoB Verified/Not verified” is not required_x000a_- PoB/other docs can be marked as mandatory/optional vide config but the Country_x000a_- Backend validations can be plugged in by SI – MOSIP design to accommodate the same"/>
@@ -9951,7 +9877,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -9964,7 +9890,7 @@
     <s v="MOS-13152"/>
     <d v="2018-12-20T00:00:00"/>
     <s v="GoM Gap Analysis document discussion with Shrikant"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Validation of Master Data:_x000a_Validation of data in registration packet with master data"/>
@@ -9976,7 +9902,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -9989,7 +9915,7 @@
     <s v="MOS-12822"/>
     <d v="2018-12-20T00:00:00"/>
     <s v="GoM Gap Analysis document discussion with Shrikant"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Timestamp Validation:_x000a_Timestamps validation refers to the validation of time at two levels:_x000a_- Verification to check if a Registration machine is active at the time of registration, is covered during packet processing_x000a_- Verification to check if a Registration was carried out on a holiday_x000a_- Time taken for individual activity is not controlled by MOSIP as this will lead to exlusion in remote areas, however, this will be logged."/>
@@ -10001,7 +9927,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2018-12-18T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10014,7 +9940,7 @@
     <s v="MOS-19886"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="STUB - As the MOSIP Registration Client, I should be able to allow supervisor to authenticate in case of low quality biometric"/>
@@ -10026,7 +9952,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="2"/>
+    <n v="12"/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10039,7 +9965,7 @@
     <s v="MOS-16109"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="STUB - As the MOSIP Registration Client, I should be able to mark low quality biometrics as exceptions"/>
@@ -10051,7 +9977,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="2"/>
+    <n v="12"/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10064,7 +9990,7 @@
     <s v="MOS-15999"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Biometrics Data Capture Screen: Stubbed Implementation Implementation_x000a_1. Post maximum retry attempts (3) have been reached, system to identify the best quality captured_x000a_2. Further to crossing the 3 attempts &gt; If the quality is not met - MOSIP to provide an option to mark the iris as exception and proceed further – Biometrics in this case should be re-captured - New requirement_x000a_3. Provide an option to mark a reason for Biometrics Exception &gt; Missing iris or Low quality - New requirement_x000a_"/>
@@ -10076,7 +10002,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10089,7 +10015,7 @@
     <s v="MOS-12999"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v=" Capture Biometrics Exception Photo:_x000a_1. Provide ability to capture multiple photos based on each reason and for example, one photo for fingerprint and one photo for iris exception – Either refer or capture different photo for each exception -  New requirement_x000a_2. Provide ability to upload documents to support exceptions - New requirement_x000a_"/>
@@ -10101,7 +10027,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="6"/>
+    <n v="30"/>
     <n v="45"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10114,7 +10040,7 @@
     <s v="MOS-13522"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Operator Authentication:_x000a_1. Provide ability to capture live photo (Maybe a short video instead of a photo) – New requirement_x000a_"/>
@@ -10126,7 +10052,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10139,7 +10065,7 @@
     <s v="MOS-13523"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="_x000a_Biometrics Exceptions Approval:_x000a_1. In case of biometric exceptions, provide ability to configure if supervisor authentication is required and if it is one/two levels – Two levels of Supervisor approval is a New Requirement"/>
@@ -10151,7 +10077,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="22"/>
+    <s v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10164,7 +10090,7 @@
     <s v="MOS-13659"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="As the MOSIP registration client, I should consume the Admin setting to turn Supervisor authentication for biometric exceptions On or Off"/>
@@ -10176,7 +10102,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="22"/>
+    <s v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10189,7 +10115,7 @@
     <s v="MOS-19014"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Update:_x000a_i. Provide ability to scan QR code besides manually entering UIN number - New requirement_x000a_ii. Additionally, pre-populate data from QR code (if available), based on option selected for update (EG: If address is marked for update, then address to be pre-populated from QR code). Implementation aspects to be discussed - New requirement_x000a_iii. Evaluate if CNIE/UIN/EC Number Update is required, as if the number captured is incorrect, packet processing would have failed – Place in CR tracker if excluded"/>
@@ -10201,7 +10127,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="23"/>
+    <s v="30"/>
     <n v="45"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10214,7 +10140,7 @@
     <m/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Manual Adjudication: _x000a_i. MOSIP will provide the required demographic and biometric data to be consumed by Biometrics Service Provider_x000a_ii. User Interface for manual adjudication will be provided by Biometrics Service Provider (BSP) and can be de-scoped to v2 of MOSIP_x000a_"/>
@@ -10226,7 +10152,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="4"/>
@@ -10239,7 +10165,7 @@
     <s v="MOS-15998"/>
     <d v="2018-12-31T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Update: Stub for QR data retrieval_x000a_i. Provide ability to scan QR code besides manually entering UIN number - New requirement_x000a_ii. Additionally, pre-populate data from QR code (if available), based on option selected for update (EG: If address is marked for update, then address to be pre-populated from QR code). Implementation aspects to be discussed - New requirement_x000a_iii. Evaluate if CNIE/UIN/EC Number Update is required, as if the number captured is incorrect, packet processing would have failed – Place in CR tracker if excluded_x000a_iv.For Registration Client, admin should configure the “Biometrics Exceptions Applicable” as one of the attributes driving the “Applicant Type”, for which a specific set of Document Categories and its respective Document Types can be setup by the admin. – This has been confirmed with the customer  "/>
@@ -10251,7 +10177,7 @@
     <s v="Approved"/>
     <s v="Shrikant/_x000a_Ramesh"/>
     <d v="2018-12-31T00:00:00"/>
-    <x v="24"/>
+    <s v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10264,7 +10190,7 @@
     <s v="MOS-13526"/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Virus Scan of Registration Client Software:_x000a_i. To be included, considering usage of Windows OS by GoM (Even though within Govt. Network)"/>
@@ -10276,7 +10202,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="25"/>
+    <s v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10289,7 +10215,7 @@
     <s v="MOS-13526"/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Virus Scan of each Registration packet in Registration Client Software:_x000a_(Prior to packet upload) _x000a_i. To be included, considering usage of Windows OS by GoM (Even though within Govt. Network)"/>
@@ -10301,7 +10227,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10314,7 +10240,7 @@
     <s v="MOS-13528"/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="7"/>
+    <s v="Admin/_x000a_Reporting"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Lost UIN:_x000a_i. MOSIP design accommodates an elevated user within the MOSIP eco-system to view data of a UIN holder_x000a_ii. This will help facilitate usage of this API by internal users to ease the process of retrieving Lost UIN online, without biometrics_x000a_iii. It is recommended not to expose the Lost UIN feature on a public portal"/>
@@ -10326,7 +10252,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="8"/>
+    <n v="0"/>
     <n v="0"/>
     <s v="NA"/>
     <x v="0"/>
@@ -10339,7 +10265,7 @@
     <s v="MOS-13157"/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Approach of Authentication by AUA vide TSP (ASA):_x000a_i. User Agency (AUA) to sign and send request for authentication to TSP (ASA)_x000a_ii. TSP (ASA) to perform network authentication of source of data (Could be VPN/SSL checks)_x000a_iii. If ok, ASA to sign the packet &gt; Transmit to MOSIP system_x000a_iv. MOSIP to perform check on authenticity of TSP signature and honor auth request accordingly"/>
@@ -10351,7 +10277,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="50"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10364,7 +10290,7 @@
     <s v="MOS-13161"/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Additional eKYC API for authentication by an authorized agency:_x000a_i. GoM will require an additional API _x000a_ii. MOSIP to provide an additional API to fetch specific data of an individual based on UIN number (Evaluate security aspect, as linking of HoF and maintenance of family relationship will be required as a security imperative) and send to Social Protection Data System_x000a_iii. MOSIP to provide a mechanism to record the consent of HoF_x000a_iv. This is required to accommodate Household Program of GoM"/>
@@ -10376,7 +10302,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <m/>
     <x v="0"/>
@@ -10389,7 +10315,7 @@
     <m/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="7"/>
+    <s v="Admin/_x000a_Reporting"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Reporting: _x000a_i. MOSIP to run a periodical check on Update Packets received to update “Status” – To verify if transactions have been carried out post reporting of UIN for death/de-activation_x000a_ii. Report to be drawn on the same"/>
@@ -10401,7 +10327,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <m/>
     <x v="3"/>
@@ -10414,7 +10340,7 @@
     <m/>
     <d v="2019-01-12T00:00:00"/>
     <s v="Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="8"/>
+    <s v="Technology"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Use of ISILON Hadoop in RNP System:_x000a_i. MOSIP to incorporate usage of ISILON/HDFS_x000a_ii. Implication on testing to be evaluated_x000a_iii. Biztalk"/>
@@ -10426,7 +10352,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2019-01-12T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <m/>
     <x v="0"/>
@@ -10439,7 +10365,7 @@
     <s v="MOS-13527"/>
     <d v="2019-01-21T00:00:00"/>
     <s v="Mail from Ramesh dtd 21Jan19_Reference Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="As the Registration Officer, I should be able to download and run the client software off my computer - part 2"/>
@@ -10451,7 +10377,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-21T00:00:00"/>
-    <x v="20"/>
+    <n v="40"/>
     <n v="60"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10464,7 +10390,7 @@
     <s v="MOS-16120"/>
     <d v="2019-01-21T00:00:00"/>
     <s v="Mail from Ramesh dtd 21Jan19_Reference Meeting with GoM/PwC/MOSIP Tech Board - 12Jan'19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="USB Bootable Dongle vs Downloadable Software:_x000a_1. The USB dongle work can be de-prioritized for Morocco. We need to make sure that we can work with the TPM for keys to be stored on Windows 10. Also need to check if docker allows access to TPM on Windows 10._x000a__x000a_2. From a deployment guideline perspective we have to advise morocco to enable bitlocker for encryption of hard drive._x000a__x000a_3. We can look at USB dongle later as part of Vanilla version of MOSIP_x000a_"/>
@@ -10476,7 +10402,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-21T00:00:00"/>
-    <x v="20"/>
+    <n v="40"/>
     <n v="60"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10489,7 +10415,7 @@
     <s v="MOS-8942"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal requirement evaluation dt. 14 Dec '18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Packet Clean-up:_x000a_Delete pre-reg packet if not consumed in client after 15 days of appointment date."/>
@@ -10501,7 +10427,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10514,7 +10440,7 @@
     <s v="MOS-13556"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal requirement evaluation"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Enter Pre-registration ID: Addendum to MOS-1204:_x000a_1. Provide ability to scan the pre-reg ID using a QR code scanner and populate the ID on the registration page."/>
@@ -10526,7 +10452,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="6"/>
+    <n v="30"/>
     <n v="45"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10539,7 +10465,7 @@
     <s v="MOS-13556"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal requirement evaluation"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Enter Pre-registration ID: Addendum to MOS-1204:_x000a_Stubbed data_x000a_1. Provide ability to scan the pre-reg ID using a QR code scanner and populate the ID on the registration page."/>
@@ -10551,7 +10477,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10564,7 +10490,7 @@
     <s v="MOS-13556"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal requirement evaluation"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Enter Pre-registration ID: Addendum to MOS-1204:_x000a_With Stub data for QR code data_x000a_1. Provide ability to scan the pre-reg ID using a QR code scanner and populate the ID on the registration page."/>
@@ -10576,7 +10502,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10589,7 +10515,7 @@
     <s v="MOS-13557"/>
     <d v="2019-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Document Upload: Addendum to MOS-1214:_x000a_1. Document Categories + Types applicable for an individual are driven by configuration per Applicant Type + Gender + Foreigner/Local+Biometrics Exceptions Applicable_x000a_(“Biometrics Exceptions Applicable” should be considered as one of the attributes driving the “Applicant Type”, for which a specific set of Document Categories and its respective Document Types can be setup by the admin)_x000a_2. Applicable documents are always mandatory. There is no optional document.  _x000a_"/>
@@ -10601,7 +10527,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-02T00:00:00"/>
-    <x v="2"/>
+    <n v="12"/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10614,7 +10540,7 @@
     <s v="MOS-13344"/>
     <d v="2019-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Document Upload: Addendum to MOS-1214:_x000a_1. Document Categories + Types applicable for an individual are driven by configuration per Applicant Type + Gender + Foreigner/Local._x000a_2. Applicable documents are always mandatory. There is no optional document.  _x000a_"/>
@@ -10626,7 +10552,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-02T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="13"/>
     <m/>
     <x v="1"/>
@@ -10639,7 +10565,7 @@
     <s v="MOS-1316"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal evaluation and discussion with Shrikant between 8 Jan and 14 Jan '19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Preview Page: Addendum to MOS-1214:_x000a_1. Provide a timer (default 30 sec). User can proceed to the next step only after expiry of the timer._x000a_2. Preview page should display actual scanned images of fingerprints and irises._x000a_3. On navigating to Registration Preview &gt; Edit &gt; Modify ‘Biometric Exception’ from ‘On’ to ‘Off’ or ‘Off’ to ‘On': All biometrics previously captured (including photos) should be cleared and fresh captures will need to be made."/>
@@ -10651,7 +10577,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-14T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10664,7 +10590,7 @@
     <m/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal evaluation and discussion with Shrikant between 8 Jan and 14 Jan '19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Acknowledgement Page: Addendum to MOS-338:_x000a_Render dummy images of left hand, right hand, thumbs, left iris and right iris. A tick or cross against each finger/Iris should indicate if the respective biometric was captured or was marked as an exception. Show fingerprint quality ranks._x000a_Remove fingerprint. For Morocco, it should be disabled/enabled depending on the config"/>
@@ -10676,7 +10602,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-14T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -10689,7 +10615,7 @@
     <s v="MOS-13560"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Internal evaluation and discussion with Shrikant between 2 Jan and 3 Jan '19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Update: Addendum to MOS-1299:_x000a_1. The mandatory biometrics should be configurable. For v1 we will implement the following rules._x000a_1.1. UIN Update - Adult_x000a_- Update of demographic data only: Capture at least one biometric (fingerprint or iris). More than one can be captured at the operator’s discretion._x000a_- Update of fingerprints: Capture all ten fingerprints minus any exceptions._x000a_- Update of irises: Capture both irises minus any exceptions._x000a_1.2. UIN Update - Child - for the first time after turning 5_x000a_- Capture all ten fingerprints and both irises minus any exceptions._x000a_- Capture at least one biometric of the parent._x000a_1.3. UIN Update - Child - before 5 years of age_x000a_- Only demographic data update is allowed. Capture at least one biometric of the parent._x000a__x000a_2. Mandatory fields to be captured and sent in the packet: UIN, List of attributes marked for update, New values of attributes, Full Name, Face photo."/>
@@ -10701,7 +10627,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-03T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10714,7 +10640,7 @@
     <s v="MOS-13561"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Sprint 7 Demo Feedback from Ramesh/Shrikant/Krishnan"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Upload Packets: Addendum to MOS-559:_x000a_1. Provide the ability for the Officer to first view packet IDs pending upload and select which ones to upload."/>
@@ -10726,7 +10652,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10739,7 +10665,7 @@
     <m/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Device Status:_x000a_Display device status on the header."/>
@@ -10751,7 +10677,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="3"/>
@@ -10764,7 +10690,7 @@
     <s v="MOS-15996"/>
     <d v="2019-01-24T00:00:00"/>
     <s v="Feedback during review of VDs - Refer MoM dated 31-Dec-18"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Device Status: Stubbed Implementation_x000a_Display device status on the header."/>
@@ -10776,7 +10702,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-24T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10789,7 +10715,7 @@
     <s v="MOS-10831"/>
     <d v="2018-12-14T00:00:00"/>
     <s v="Requirements Review of FIT2 stories"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Fingerprint and IRIS Auth Composite Score Logic_x000a_For the Fingerprint and IRIS Composite Authentication, the composite score logic for two fingerprints/IRIS to be provided by SDK_x000a_MOSIP to integrate with SDK provided by the country to retrieve the composite score"/>
@@ -10801,7 +10727,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2018-12-14T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <n v="40"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -10814,7 +10740,7 @@
     <s v="MOS-13664"/>
     <d v="2018-12-13T00:00:00"/>
     <s v="Auth API spec changes based on technical Review"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Design Changes based on technical Review"/>
@@ -10826,7 +10752,7 @@
     <s v="Approved"/>
     <s v="Sanjay"/>
     <d v="2018-12-13T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10839,7 +10765,7 @@
     <s v="MOS-13682"/>
     <d v="2019-01-30T00:00:00"/>
     <s v="Query log clarification: Refer email dated 30Jan'19"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Individual's Consent on Data Sharing:_x000a_On initiating a new application, before entering the demographic data, MOSIP should provide an explicit option (Recommend a pop-up with check-box to give consent) to the individual to give his/her consent for storing/utilizing the data as appropriate. This consent should be sought for every applicant."/>
@@ -10851,7 +10777,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-30T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="8"/>
     <m/>
     <x v="1"/>
@@ -10864,7 +10790,7 @@
     <s v="MOS-14046"/>
     <d v="2019-01-30T00:00:00"/>
     <s v="Query log clarification: Refer email dated 30Jan'19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Individual's Consent on Data Sharing:_x000a_For every registration, MOSIP should provide an option for the RO to mark an individual's consent. This should be provided on the &quot;Preview&quot; page. The options provided should be: Yes/No. If the RO marks &quot;No&quot; for a specific registration, this should not inhibit issuance of UIN for that individual. Whether the consent is marked as Yes/No should not have any impact on issuance of UIN for that individual and MOSIP should not execute any validations in this regard during packet processing."/>
@@ -10876,7 +10802,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-30T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10889,7 +10815,7 @@
     <s v="MOS-13344"/>
     <d v="2018-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Applicant Type-Document Category/Type Mapping:_x000a_Ability to maintain Applicant Type-Document Category-Document Type Mapping"/>
@@ -10901,7 +10827,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10914,7 +10840,7 @@
     <s v="MOS-12060"/>
     <d v="2018-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Applicant Type-Document Category/Type Mapping:_x000a_Ability to maintain Applicant Type-Document Category-Document Type Mapping"/>
@@ -10926,7 +10852,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10939,7 +10865,7 @@
     <s v="MOS-13950"/>
     <d v="2018-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Applicant Type-Document Category/Type Mapping:_x000a_Fetch all Individual Types"/>
@@ -10951,7 +10877,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10964,7 +10890,7 @@
     <s v="MOS-13951"/>
     <d v="2018-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Applicant Type-Document Category/Type Mapping:_x000a_fetch List of Document Category-Document Type mappings based on Applicant Type and a List of Language Codes"/>
@@ -10976,7 +10902,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -10989,7 +10915,7 @@
     <s v="MOS-13976"/>
     <d v="2018-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Applicant Type-Document Category/Type Mapping:_x000a_ Provide latest Masterdata to Registration Client_Part 4"/>
@@ -11001,7 +10927,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11014,7 +10940,7 @@
     <m/>
     <d v="2018-01-08T00:00:00"/>
     <s v="MoM dated 08Jan'19 - Refer email SUB: MoM: Applicant Type Mapping - Requirement Clarification &lt;08-Jan'18&gt;"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Applicant Type-Document Category/Type Mapping:_x000a_Applicant Type-Document Category-Document Type Mapping"/>
@@ -11026,7 +10952,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -11039,7 +10965,7 @@
     <s v="MOS-13943"/>
     <d v="2018-12-02T00:00:00"/>
     <s v="Process Flow Validations Discussion for Reg. processor with Vivek Raghavan"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Master Data Valiadtion during Packet Processing:_x000a_Due to the additional item for Reg Processor - MOS-13152 - To implement Master Data Validation in ID Object during packet processing, this will be a CR for Kernel: Fetch the Location Data based on the Location Name"/>
@@ -11051,7 +10977,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="5"/>
+    <n v="2"/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11064,7 +10990,7 @@
     <s v="MOS-13944"/>
     <d v="2018-12-02T00:00:00"/>
     <s v="Process Flow Validations Discussion for Reg. processor with Vivek Raghavan"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Master Data Valiadtion during Packet Processing:_x000a_Due to the additional item for Reg Processor - MOS-13152 - To implement Master Data Validation in ID Object during packet processing, this will be a CR for Kernel: Fetch Gender Data based on a Gender Name"/>
@@ -11076,7 +11002,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-01-08T00:00:00"/>
-    <x v="5"/>
+    <n v="2"/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11089,7 +11015,7 @@
     <s v="MOS-13945"/>
     <d v="2019-01-31T00:00:00"/>
     <s v="Refer MOM:MoM_MOSIP_Full_Demo_Kernel_Customer_Meeting_31Jan19"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Sync Approach Change:_x000a_Ability to respond to Registration Client with &quot;Last Sync Timestamp&quot; while syncing Masterdata, List of Users, Roles and User-Role Mapping to Registration Client"/>
@@ -11101,7 +11027,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-31T00:00:00"/>
-    <x v="5"/>
+    <n v="2"/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11114,7 +11040,7 @@
     <m/>
     <d v="2019-01-31T00:00:00"/>
     <s v="Refer MOM:MoM_MOSIP_Full_Demo_Kernel_Customer_Meeting_31Jan19"/>
-    <x v="9"/>
+    <s v="Partner Management Portal"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="License Key Status:_x000a_Ability to maintain various status for a License Key_x000a_Ability to temporarily suspend or permanently block a License Key"/>
@@ -11126,7 +11052,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-31T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="8"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -11139,7 +11065,7 @@
     <s v="MOS-15406"/>
     <d v="2019-01-31T00:00:00"/>
     <s v="Refer MOM:MoM_MOSIP_Full_Demo_Kernel_Customer_Meeting_31Jan19"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN Status:_x000a_Introduce an intermediary status for UIN to indicate the difference between UIN issuance and UIN allocation"/>
@@ -11151,7 +11077,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-01-31T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="11"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11164,7 +11090,7 @@
     <s v="MOS-15404"/>
     <d v="2019-01-31T00:00:00"/>
     <s v="Refer MOM:MoM_MOSIP_Full_Demo_Kernel_Customer_Meeting_31Jan19"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Token ID Generation:_x000a_Change the Token ID generation algorithm from Hash to random generation"/>
@@ -11176,7 +11102,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11189,7 +11115,7 @@
     <s v="MOS-15408"/>
     <d v="2019-02-01T00:00:00"/>
     <s v="FW: MOSIP Demo: Kernel &lt;31st Jan,19&gt; Seeking clarity on extended Sync Feature for Reg. Client"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Sync Handler:_x000a_There will an additional method for registration client to sync master data where they will send Registration Center id and machine id. This will be to validate whether a particular machine is still mapped to the received Registration Center or not"/>
@@ -11201,7 +11127,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <m/>
-    <x v="1"/>
+    <s v="4"/>
     <n v="5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11214,7 +11140,7 @@
     <s v="MOS-14511"/>
     <d v="2019-02-21T00:00:00"/>
     <s v="Mail from GoM on the pending inputs"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Location Hierarchy Update:_x000a_1. Update Location Hierarchy as per the structure received from GoM with the following fields:_x000a_House Number, Building, Avenue/ street/Road/Path, District / residence/area/ bloc of buildings / Douar, ZIP Code, City, Town, Village_x000a_a. Fields: City, Town &amp; Village: Values should be hierarchically derived from the Postal Code selected_x000a_b. Each Postal Code can be mapped to one or multiple Cities_x000a_c. Each City could be mapped to one or multiple Towns_x000a_d. Each Town could be mapped to one or multiple Villages_x000a_e. If only one value is found to be associated to the selected Postal Code, then the mapped City, Town and Village should be automatically rendered_x000a_f. If more than one value is found to be associated to the Postal Code, then the relevant values for City, Town and Village should be rendered_x000a_2. DB structure and UI to be updated accordingly"/>
@@ -11226,7 +11152,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-02-21T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="13"/>
     <m/>
     <x v="0"/>
@@ -11239,7 +11165,7 @@
     <s v="MOS-16544"/>
     <d v="2019-02-21T00:00:00"/>
     <s v="Mail from GoM on the pending inputs"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Location Hierarchy Update:_x000a_1. Update Location Hierarchy as per the structure received from GoM with the following fields:_x000a_House Number, Building, Avenue/ street/Road/Path, District / residence/area/ bloc of buildings / Douar, ZIP Code, City, Town, Village_x000a_a. Fields: City, Town &amp; Village: Values should be hierarchically derived from the Postal Code selected_x000a_b. Each Postal Code can be mapped to one or multiple Cities_x000a_c. Each City could be mapped to one or multiple Towns_x000a_d. Each Town could be mapped to one or multiple Villages_x000a_e. If only one value is found to be associated to the selected Postal Code, then the mapped City, Town and Village should be automatically rendered_x000a_f. If more than one value is found to be associated to the Postal Code, then the relevant values for City, Town and Village should be rendered_x000a_2. DB structure and UI to be updated accordingly"/>
@@ -11251,7 +11177,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-02-21T00:00:00"/>
-    <x v="25"/>
+    <s v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -11264,7 +11190,7 @@
     <s v="MOS-18214"/>
     <d v="2019-03-01T00:00:00"/>
     <s v="Discussion with Sasi - refer email dated 01-Mar-19"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Updated Auth and eKYC API spec based on discussion with Sasi - There will be one MOSIP Device Service spec, which will be one unified service spec for registration and authentication devices:_x000a_https://github.com/mosip/mosip/wiki/ID-Authentication-APIs "/>
@@ -11276,7 +11202,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-01T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="40"/>
     <s v="Yes"/>
     <x v="5"/>
@@ -11289,7 +11215,7 @@
     <s v="MOS-18215"/>
     <d v="2019-03-01T00:00:00"/>
     <s v="Discussion with Sasi - refer email dated 01-Mar-19"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Auth APIs now will be authenticated by Partners using VID only_x000a__x000a_"/>
@@ -11301,7 +11227,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-01T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11314,7 +11240,7 @@
     <s v="MOS-18117"/>
     <d v="2019-03-04T00:00:00"/>
     <s v="Discussion with Shrikant, Ramesh and Sasi - 04-Mar-19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Lost UIN:_x000a_Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. _x000a_• At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate."/>
@@ -11326,7 +11252,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-04T00:00:00"/>
-    <x v="25"/>
+    <s v="20"/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11339,7 +11265,7 @@
     <s v="MOS-17678"/>
     <d v="2019-03-04T00:00:00"/>
     <s v="Discussion with Shrikant, Ramesh and Sasi - 04-Mar-19"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Lost UIN:_x000a_Via Registration Client software, Collection of Persons Demographic &amp; Biometric Data, performing a Dedupe and identify the Duplicate and proceed to issue of letter. _x000a_• At the back end - as first step use the demographic data as filter and then perform a biometric dedupe with the limited set of records, in case of unsuccessful match ignore the demographic data and perform a complete biometric dedupe to identify the duplicate."/>
@@ -11351,7 +11277,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="25"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11364,7 +11290,7 @@
     <s v="MOS-17869"/>
     <d v="2019-03-05T00:00:00"/>
     <s v="E-mail from Shrikant dated 05-Mar-19"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Auto-logout based on Configuration Parameter:_x000a_a. Due to in-activity for x mins (as configured), the user should be auto-logged out. Prior to logout, the user should be alerted_x000a_b. If no action is taken by user, the user will be logged out and data entered should not be auto-saved"/>
@@ -11376,7 +11302,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-05T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="16"/>
     <m/>
     <x v="1"/>
@@ -11389,7 +11315,7 @@
     <s v="MOS-18100"/>
     <d v="2019-03-07T00:00:00"/>
     <s v="Sprint FIT-3 Demo feedback from Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Proof of Consent:_x000a_a. Ability to capture Proof of Consent"/>
@@ -11401,7 +11327,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-07T00:00:00"/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -11414,7 +11340,7 @@
     <m/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Document Upload should be Optional:_x000a_Document Upload should be non-mandatory in Pre-Reg. The reason being, making document upload reduces the use case of pre-reg (due to need of Scanner) and documents can be brought at the centre at time of registration also"/>
@@ -11426,7 +11352,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="14"/>
+    <n v="5"/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11439,7 +11365,7 @@
     <s v="MOS-20302"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Pre-registration UI:_x000a_Age/DoB slider should be more intuitive"/>
@@ -11451,7 +11377,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11464,7 +11390,7 @@
     <s v="MOS-20303"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Pre-registration UI:_x000a_Recommended to have Keyboard icon beside the text boxes instead of Default keyboard display"/>
@@ -11476,7 +11402,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="5"/>
     <m/>
     <x v="0"/>
@@ -11489,7 +11415,7 @@
     <s v="MOS-20304"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Pre-registration UI:_x000a_Change of Message after successful Document Upload"/>
@@ -11501,7 +11427,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="1"/>
     <m/>
     <x v="1"/>
@@ -11514,7 +11440,7 @@
     <s v="MOS-20306"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Functional Change: Allow partial search in center selection page"/>
@@ -11526,7 +11452,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="14"/>
+    <n v="5"/>
     <n v="10"/>
     <m/>
     <x v="0"/>
@@ -11539,7 +11465,7 @@
     <s v="MOS-20308"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Pre-registration UI:_x000a_Appointment Booking Screen to be intuitive"/>
@@ -11551,7 +11477,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="NA"/>
     <m/>
     <x v="0"/>
@@ -11564,7 +11490,7 @@
     <s v="MOS-20783"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="MOS-1145 - Review of Sprint 10 stories"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Update Biometric Authentication design independent of the biometric provider/type"/>
@@ -11576,7 +11502,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="40"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -11589,7 +11515,7 @@
     <s v="MOS-22023"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Filesystem must have permissions._x000a_Both Internal File System (HDFS/CEPH) and External File System (File System in DMZ) should have permissions enabled for Upload/ Fetch/ Delete Files from File System."/>
@@ -11601,7 +11527,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11614,7 +11540,7 @@
     <s v="MOS-21712_x000a_MOS-21713"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Hash Check for Encrypted Packet (RID, Hash Sequence, Packet Size, Optional Values – Anything Required for Integration, PRID)_x000a_a._x0009_Registration Client needs to send a Hash Sequence for the Encrypted Packet, Size of the Packet, PRID, Any Optional Attributes which would be required for Integration with External System during Packet Meta Data Sync._x000a_b._x0009_Whenever Registration Processor Stage fetches the Encrypted Packet they need to perform a Check Sum Validation for the Encrypted Packet against the Hashed Sequence received during Packet Metadata Sync._x000a_i._x0009_Receiving the Packet from Reg Client._x000a_ii._x0009_Fetching the File from DMZ Zone to Store in HDFS (Secure Zone) File System._x000a_c._x0009_Encrypt the whole Request Body for the Packet Metadata Sync Request (Same as Encryption Logic used for Packet)._x000a_d._x0009_Center ID should be passed in the Header._x000a_e._x0009_While Receiving the Packet from Reg Client, Registration Processor can perform size validation using the Packet Size received during Packet Metadata Sync."/>
@@ -11626,7 +11552,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="11"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11639,7 +11565,7 @@
     <s v="MOS-21754"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Digital Signature of the Response received by Client (One Key Pair can be used for Whole MOSIP Application)_x000a_a._x0009_Server Signs the response with a MOSIP Private Key._x000a_b._x0009_Client Validates the Request using the MOSIP Public Key."/>
@@ -11651,7 +11577,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11664,7 +11590,7 @@
     <s v="MOS-21715"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Virus Scanning_x000a_a._x0009_Virus Scanning should be done In-Memory._x000a_b._x0009_Virus Scanning should be done before even Storing the File in the File System (even in DMZ Zone)."/>
@@ -11676,7 +11602,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="22"/>
     <m/>
     <x v="1"/>
@@ -11689,7 +11615,7 @@
     <s v="MOS-21716"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Virus Scanning_x000a_c._x0009_Virus Scanning should be done twice, first in Untrusted Zone and Again in Trusted Zone._x000a_d._x0009_First Virus Scan, for the encrypted and decrypted file should be done in-memory, but it should not be unzipped as Antivirus should take care of unzipping and performing Virus Scan._x000a_e._x0009_Second Virus Scan can be done on unzipped Files in Pre-Processing Stage (Secure Zone). _x000a_f._x0009_If Virus Scan Fails, we should not Store the file at all in MOSIP System, the Virus Scanner will store the File in Quarantine Zone. We should not worry about it. "/>
@@ -11701,7 +11627,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="22"/>
     <m/>
     <x v="1"/>
@@ -11714,7 +11640,7 @@
     <s v="MOS-21717"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Fetching Files from DMZ to HDFS _x000a_a._x0009_The Connector Stage (in Secure Zone) gets triggered and gets a RID._x000a_b._x0009_The Connector Stage now performs a Check Sum Validation on the File in DMZ Zone._x000a_c._x0009_Post Successful Validation, the Connector Stage should Pull the File from DMZ File System and Store in HDFS (in Secure Zone)."/>
@@ -11726,7 +11652,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="9"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11739,7 +11665,7 @@
     <s v="MOS-22032"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="OTP Validation for Officer and Supervisor (Can be part of Version 2)_x000a_a._x0009_Registration Processor should receive a Token from Registration Client, when Officer or Supervisor authenticate the them self during Packet Creation._x000a_b._x0009_Registration Processor validates the Token in Server and Authenticates the Officer and Supervisor."/>
@@ -11751,7 +11677,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="Yes"/>
     <x v="0"/>
@@ -11764,7 +11690,7 @@
     <s v="MOS-22034"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Parent or Guardian (Introducer) Biometric Validation _x000a_Scenario 1:_x000a_a._x0009_If RID of the Parent is not found or UIN has not been generated, then wait for Y hrs. and retry for X number of days._x000a_b._x0009_Even if after X number of days, you don't find the Parent RID, then Perform a Bio De-Dupe for Parent's captured biometrics (Can be taken as part of Version 2)_x000a_I._x0009_if match found in Bio Dedupe, generate Child's UIN._x000a_II._x0009_if match not found in Bio Dedupe, then reject the Child's UIN._x000a_Scenario 2:_x000a_a. If RID of the Parent is Processed or UIN of the Parent is received, Perform 1:1 Match,_x000a_i._x0009_if match found in 1:1 Match, generate Child's UIN._x000a_ii._x0009_if match not found in 1:1 Match, then reject the Child's UIN."/>
@@ -11776,7 +11702,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="Yes"/>
     <x v="0"/>
@@ -11789,7 +11715,7 @@
     <s v="MOS-21718"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Parent or Guardian (Introducer) Biometric Validation _x000a_For Current Implementation,_x0009__x000a_a._x0009_For New child registration, capture one slapstick of one biometric of the Parent/Guardian_x000a_b._x0009_For UIN Update of Child, capture the UIN, Name and one slapstick of one biometric of the Parent/Guardian (It could be any Parent/guardian – Same Parent/guardian as during registration or another Parent/guardian)_x000a_c._x0009_Perform 1:1 match of the biometric captured with the biometric of the parent/guardian’s associated with the provided UIN_x000a_I._x0009_If matched - Honor Child’s UIN’s Update request_x000a_II._x0009_If not matched – Reject Child’s UIN’s Update request_x000a_d._x0009_If Parent/guardian’s RID is never received by Registration Processor, then Reject the UIN of the Resident."/>
@@ -11801,7 +11727,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -11814,7 +11740,7 @@
     <s v="NA"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Manual Verification after 1:1 Biometric Match Failure_x000a_In the event of demo dedupe potential match and bio 1:1 match failure, manual verification is not required. Such packets can be rejected."/>
@@ -11826,7 +11752,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="NA"/>
     <s v="No"/>
     <x v="2"/>
@@ -11839,7 +11765,7 @@
     <s v="MOS-21733"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="UIN generation_x000a_a._x0009_For New Registration, Inserting Data in ID Database should be handled by Registration Processor._x000a_b._x0009_For Update Registration, Updating Data in ID Database should be handled by Registration Processor._x000a_c._x0009_ID Repository API should only perform GET/SEARCH operations."/>
@@ -11851,7 +11777,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="30"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -11864,7 +11790,7 @@
     <m/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="De-scoped"/>
     <s v="Functional"/>
     <s v="Operator and Supervisor Logins should have VIDs_x000a_a._x0009_User ID, Password is present in LDAP._x000a_b._x0009_Create a Mapping of User ID and VID internally and Authenticate the User._x000a_c._x0009_Even though the mapped VID is inactive/revoked, the operator can continue with registrations_x000a_d._x0009_What happens when VID gets Expired or Changed by Operator? - TBD "/>
@@ -11876,7 +11802,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="0"/>
     <s v="No"/>
     <x v="4"/>
@@ -11889,7 +11815,7 @@
     <m/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="7"/>
+    <s v="Admin/_x000a_Reporting"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Blacklisted Operators and Supervisors in User Table/LDAP_x000a_a._x0009_Add Blacklisted flag in LDAP/User table for Operator or Supervisor, if the Admin Blacklists the User._x000a_b._x0009_If an Operator/Supervisor is found to be Black Listed in the Packet, then the Packet goes On Hold._x000a_c._x0009_User History should be stored in MOSIP DB."/>
@@ -11901,7 +11827,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="No"/>
     <x v="3"/>
@@ -11914,7 +11840,7 @@
     <m/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="7"/>
+    <s v="Admin/_x000a_Reporting"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Adding Trained Flag for Operator or Supervisor in User Table/LDAP _x000a_Add Trained/Certified flag in LDAP/User table for Operator or Supervisor who have completed the Training for MOSIP."/>
@@ -11926,7 +11852,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="No"/>
     <x v="3"/>
@@ -11939,7 +11865,7 @@
     <s v="MOS-22027"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Donot Use UIN in Registration Processor,_x000a_We should use Only RID in Registration Processor and Remove UIN where ever used."/>
@@ -11951,7 +11877,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="15"/>
     <s v="No"/>
     <x v="1"/>
@@ -11964,7 +11890,7 @@
     <s v="MOS-21755"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Integration with External System and Appending /Combining the Packets_x000a_a._x0009_Store Multiple Packets in Packet Store (DFS) for Processing._x000a_b._x0009_The Additional Packets coming in should be as per MOSIP Standards (Pre-Decided)._x000a_c._x0009_Update Section in the Update Packet – Should have only Update Values. _x000a_d._x0009_Combination of Packet Function to Combine multiple Packets._x000a_e._x0009_Verify the Combined packet using Check Sum._x000a_f._x0009_This can be used for Correction Packet Integration."/>
@@ -11976,7 +11902,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="50"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -11989,7 +11915,7 @@
     <s v="MOS-21461"/>
     <d v="2019-03-29T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Tech story - Send a Hash Sequence for the Encrypted Packet"/>
@@ -12001,7 +11927,7 @@
     <s v="Approved"/>
     <s v="Sasi"/>
     <d v="2019-03-29T00:00:00"/>
-    <x v="24"/>
+    <s v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12014,7 +11940,7 @@
     <s v="MOS-21470"/>
     <d v="2019-03-29T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="For UIN Update of Child, capture the UIN, Name and one biometric of the Parent/Guardian"/>
@@ -12026,7 +11952,7 @@
     <s v="Approved"/>
     <s v="Sasi"/>
     <d v="2019-03-29T00:00:00"/>
-    <x v="27"/>
+    <s v="8"/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12039,7 +11965,7 @@
     <s v="MOS-21517"/>
     <d v="2019-03-29T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="For new registration of child capture any one biometric of the Parent/Guardian"/>
@@ -12051,7 +11977,7 @@
     <s v="Approved"/>
     <s v="Sasi"/>
     <d v="2019-03-29T00:00:00"/>
-    <x v="27"/>
+    <s v="8"/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12064,7 +11990,7 @@
     <s v="MOS-21523"/>
     <d v="2019-03-29T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Registration Client should send a token to Registration processor, when Officer or Supervisor authenticate themselves during Packet Creation"/>
@@ -12076,7 +12002,7 @@
     <s v="Approved"/>
     <s v="Sasi"/>
     <d v="2019-03-29T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <s v="30"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12089,7 +12015,7 @@
     <s v="MOS-21573"/>
     <d v="2019-03-29T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Generate packet using centre id and unique machine id"/>
@@ -12101,7 +12027,7 @@
     <s v="Approved"/>
     <s v="Sasi"/>
     <d v="2019-03-29T00:00:00"/>
-    <x v="24"/>
+    <s v="10"/>
     <n v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12114,7 +12040,7 @@
     <s v="MOS-21582"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Additional or Modification of attributes in API Specs based on review "/>
@@ -12126,7 +12052,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="8"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12139,7 +12065,7 @@
     <s v="MOS-21583"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Design Change of ID-Repo based on Security review by Sasi/Ramesh"/>
@@ -12151,7 +12077,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="40.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12164,7 +12090,7 @@
     <m/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Design Change of IDA based on Security review by Sasi/Ramesh"/>
@@ -12176,7 +12102,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-26T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="42"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12189,7 +12115,7 @@
     <s v="MOS-21585"/>
     <d v="2019-04-01T00:00:00"/>
     <s v="Mapping of platform address attributes in IDA based on Morrocco Address Structure"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Mapping of platform address attributes in IDA based on Morrocco Address Structure"/>
@@ -12201,7 +12127,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-04-01T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12214,7 +12140,7 @@
     <s v="MOS-21327"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Integrate with new VID Generator API"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Integrate with the new VID generator component based on the VID policy/type defined"/>
@@ -12226,7 +12152,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12239,7 +12165,7 @@
     <s v="MOS-20066"/>
     <d v="2019-03-22T00:00:00"/>
     <s v="Comments from Shrikant on Mar 22 nd in JIRA"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="As the MOSIP Registration Client, I should validate there are no blacklisted words in demographic data"/>
@@ -12251,7 +12177,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-22T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <s v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12264,7 +12190,7 @@
     <s v="MOS-15324_x000a_"/>
     <d v="2019-03-04T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Visual design changes:_x000a_&gt; Changed the implementation of the action on click of “Modify” button in the Registration Preview page_x000a_&gt; Modified Registration Preview page and Acknowledgement page to change it according to the configurations for Biometrics (Fingerprint, Iris and Face Capture)_x000a_&gt; Modified Registration Approval page, Preview page and Acknowledgement page according to the latest VDs_x000a_&gt; Modified the UI for Registration flow of MOSIP Registration client_x000a_&gt; Modified the UI for User Onboarding flow"/>
@@ -12276,7 +12202,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-04T00:00:00"/>
-    <x v="28"/>
+    <s v="19"/>
     <s v="28.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12289,7 +12215,7 @@
     <s v="MOS-14999_x000a_"/>
     <d v="2019-03-04T00:00:00"/>
     <s v="Sprint 9 Demo feedback from Shrikant"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Visual design changes:_x000a_&gt; Update UIN_x000a_&gt; EOD approval_x000a_&gt; Re-Registration_x000a_&gt; Upload Packet_x000a_&gt; Sync Data"/>
@@ -12301,7 +12227,7 @@
     <s v="Approved"/>
     <s v="Shrikant"/>
     <d v="2019-03-04T00:00:00"/>
-    <x v="28"/>
+    <s v="19"/>
     <s v="28.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12314,7 +12240,7 @@
     <s v="MOS-12867"/>
     <d v="2019-01-16T00:00:00"/>
     <s v="CR for MOS 236"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Enable registration only when packets pending EoD approval are within configured limits"/>
@@ -12326,7 +12252,7 @@
     <s v="Approved"/>
     <m/>
     <d v="2019-01-16T00:00:00"/>
-    <x v="27"/>
+    <s v="8"/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12339,7 +12265,7 @@
     <s v="MOS-19819"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Separate CREATE and UPDATE API in Demographic Service"/>
@@ -12351,7 +12277,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="11"/>
     <m/>
     <x v="1"/>
@@ -12364,7 +12290,7 @@
     <s v="MOS-19821"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Demographic Service Pagination implementation"/>
@@ -12376,7 +12302,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="11"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12389,7 +12315,7 @@
     <s v="MOS-19825"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Document Service GET implementation"/>
@@ -12401,7 +12327,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="27"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12414,7 +12340,7 @@
     <s v="MOS-19862"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Pre-Registration QR code implementation"/>
@@ -12426,7 +12352,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="11"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12439,7 +12365,7 @@
     <s v="MOS-19829"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Booking Service - POST implementation"/>
@@ -12451,7 +12377,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="21"/>
     <m/>
     <x v="1"/>
@@ -12464,7 +12390,7 @@
     <s v="MOS-19876"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Pre-Registration : Demographic - Path Parameter"/>
@@ -12476,7 +12402,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="18"/>
     <m/>
     <x v="1"/>
@@ -12489,7 +12415,7 @@
     <s v="MOS-19894"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Pre-Registration : Document - Path Parameter"/>
@@ -12501,7 +12427,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="11"/>
     <m/>
     <x v="1"/>
@@ -12514,7 +12440,7 @@
     <s v="MOS-19898"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Pre-Registration : Booking - Path Parameter"/>
@@ -12526,7 +12452,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="8"/>
     <m/>
     <x v="1"/>
@@ -12539,7 +12465,7 @@
     <s v="MOS-20054"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Pre-Registration : Transliteration Service APIs"/>
@@ -12551,7 +12477,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="5"/>
     <m/>
     <x v="1"/>
@@ -12564,7 +12490,7 @@
     <s v="MOS-20056"/>
     <d v="2019-03-18T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Pre-Registration : Auth Service APIs"/>
@@ -12576,7 +12502,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-18T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="5"/>
     <m/>
     <x v="1"/>
@@ -12589,7 +12515,7 @@
     <s v="MOS-22932"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="As the MOSIP system, I should be able retrieve identity data in ID-Repo by RID"/>
@@ -12601,7 +12527,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12614,7 +12540,7 @@
     <s v="MOS-22931"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="As the MOSIP system, I should be able update identity data in ID-Repo - Part II"/>
@@ -12626,7 +12552,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="4.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12639,7 +12565,7 @@
     <s v="MOS-22930"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="As the MOSIP system, I should be able retrieve identity data in ID-Repo - Part II"/>
@@ -12651,7 +12577,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12664,7 +12590,7 @@
     <s v="MOS-22929"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="As the MOSIP system, I should be able create identity data in ID-Repo - Part II"/>
@@ -12676,7 +12602,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12689,7 +12615,7 @@
     <s v="MOS-23069"/>
     <d v="2019-03-26T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Tech Story - Integrate with Service to secure UIN"/>
@@ -12701,7 +12627,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="18"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12714,7 +12640,7 @@
     <s v="MOS-21930"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Ability to generate Token ID based on hash on UIN and Partner ID"/>
@@ -12726,7 +12652,7 @@
     <s v="Approved"/>
     <s v="Ramesh/Sasi"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="29"/>
+    <s v="2"/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12739,7 +12665,7 @@
     <s v="MOS-19184"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="As per the changes mentioned for Registration Client in MOS-21573, Kernel will take up the story for &quot;Digital Signature of the Response received by Client&quot;"/>
@@ -12751,7 +12677,7 @@
     <s v="Approved"/>
     <s v="Ramesh/Sasi"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12764,7 +12690,7 @@
     <s v="MOS-21753"/>
     <d v="2019-03-28T00:00:00"/>
     <s v="Review with Sasi/Ramesh_x000a_Email _x000a_Dated: 28th Mar 2019_x000a_Subject: Detailed out the Suggestions that were Provided by Sasi for Registration Processor"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Decryption Logic:_x000a_Encryption and Decryption should be performed using Kernel API which takes Machine ID and Center ID as input"/>
@@ -12776,7 +12702,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-03-28T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12789,7 +12715,7 @@
     <s v="MOS-22039"/>
     <d v="2019-04-01T00:00:00"/>
     <m/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Removal of Applicant type Mapping with Document Category and Document type"/>
@@ -12801,7 +12727,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12814,7 +12740,7 @@
     <m/>
     <d v="2019-04-01T00:00:00"/>
     <s v="Email_x000a_Dated: 01st Apr 2019_x000a_Subject: : RE: Resident Services - VID Policy"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="As per the latest changes in VID policy, Kernel will pick up story to Generate VID for a defined VID Type"/>
@@ -12826,7 +12752,7 @@
     <s v="Approved"/>
     <s v="Ramesh/Sasi"/>
     <d v="2019-04-01T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="4.5"/>
     <s v="No"/>
     <x v="2"/>
@@ -12839,7 +12765,7 @@
     <s v="MOS 21887"/>
     <d v="2019-04-01T00:00:00"/>
     <s v="Email_x000a_Dated: 01st Apr 2019_x000a_Subject: : RE: Resident Services - VID Policy"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="As per the latest changes in VID policy, Kernel will pick up story to revoke VID for a defined VID Type"/>
@@ -12851,7 +12777,7 @@
     <s v="Approved"/>
     <s v="Ramesh/Sasi"/>
     <d v="2019-04-01T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <s v="12"/>
     <s v="No"/>
     <x v="0"/>
@@ -12864,7 +12790,7 @@
     <s v="MOS 21860"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - all screens:_x000a_There are navigation links at the top of the new reg. screen. Can we make them clickable? User should be able to navigate to the screens in any order."/>
@@ -12876,7 +12802,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12889,7 +12815,7 @@
     <s v="MOS 21861"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="New Registration - Age/Date of Birth:_x000a_If we enter age, the DoB should display 01/Jan/xxxx. _x000a_If we enter DoB, the age should be auto calculated and displayed. _x000a_Both fields should remain editable."/>
@@ -12901,7 +12827,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -12914,7 +12840,7 @@
     <s v="MOS 21863"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Transliteration:_x000a_The virtual keyboard icon is repeated three times. Can we make it appear in just one place? "/>
@@ -12926,7 +12852,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12939,7 +12865,7 @@
     <s v="MOS 21870"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Address:_x000a_The address is too spaced out. Utilize the space better. "/>
@@ -12951,7 +12877,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12964,7 +12890,7 @@
     <s v="MOS 21873"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Demographic fields:_x000a_Should age, date of birth, phone number and email be displayed twice, considering RHS is not editable?"/>
@@ -12976,7 +12902,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -12989,7 +12915,7 @@
     <s v="MOS 21887"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - all screens:_x000a_Optimize the vertical scroll bar—keep it as minimum as possible."/>
@@ -13001,7 +12927,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="30"/>
+    <n v="8"/>
     <s v="12"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13014,7 +12940,7 @@
     <s v="MOS-21888"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Biometric exceptions:_x000a_Explore the option of having the exception marking on the same screen as the document upload. Utilize the space on the right."/>
@@ -13026,7 +12952,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="16"/>
+    <n v="15"/>
     <s v="22.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13039,7 +12965,7 @@
     <s v="MOS-21897"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Biometric exceptions:_x000a_Fingerprint exception marking to be more intuitive. Do not colour the entire finger. The exception fingers should to be crossed out."/>
@@ -13051,7 +12977,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13064,7 +12990,7 @@
     <s v="MOS-21920"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Biometric exceptions:_x000a_Morocco screens will have iris exception only. Create a new screen with iris exceptions aligned better."/>
@@ -13076,7 +13002,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="21"/>
+    <n v="4"/>
     <s v="6"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13089,7 +13015,7 @@
     <s v="MOS-21921"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - all screens:_x000a_RO should be able to go back and forth between demographic, document and biometric screens. Retain the captured data in each screen. For biometrics - retain data whenever possible i.e. for those biometrics not marked as exceptions."/>
@@ -13101,7 +13027,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="16"/>
+    <n v="15"/>
     <s v="22.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13114,7 +13040,7 @@
     <s v="MOS-21922"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Biometric screens:_x000a_a. 'Start Over/Reset' buttons: what happens on click? Revisit the flow._x000a_b. 'Scan' button - instead of having the button at the bottom, provide a scan icon on the slap image itself for each biometric."/>
@@ -13126,7 +13052,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13139,7 +13065,7 @@
     <s v="MOS-21923"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - all screens:_x000a_a. RHS progress bar - can we make them links? Implement if feasible. User should be able to jump to any page using RHS and top navigation links._x000a_b. Validations - all validations should happen on the preview page when user tries to submit. Display a consolidated error message highlighting which pages have errors. User should be able to jump to the page having errors, make the changes and jump back to preview"/>
@@ -13151,7 +13077,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="10"/>
+    <n v="20"/>
     <s v="30"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13164,7 +13090,7 @@
     <s v="MOS-21924"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="New Registration - consent:_x000a_The consent feature is under discussion. It could result in additional attributes for seeking consent."/>
@@ -13176,7 +13102,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13189,7 +13115,7 @@
     <s v="MOS-21926"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="New Registration - Acknowledgement:_x000a_The acknowledgement printout should fit on half an A4 page. Hence on click of print, mirror it and print two copies on a single A4 sheet."/>
@@ -13201,7 +13127,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13214,7 +13140,7 @@
     <s v="MOS-21927"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="New Registration - Acknowledgement:_x000a_The QR code should have only the RID. Remove the other details such as demographics and photo."/>
@@ -13226,7 +13152,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="5"/>
+    <n v="2"/>
     <s v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13239,7 +13165,7 @@
     <s v="MOS-21928"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Re-register:_x000a_Rename 'Re-register' to 'Notification for Re-registration'. This should be done on the home page and the Re-register page."/>
@@ -13251,7 +13177,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="7"/>
+    <n v="1"/>
     <s v="1.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13264,7 +13190,7 @@
     <s v="MOS-21929"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 02Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Upload packet:_x000a_Provide a search feature for the list of packets on the upload page - Partial Search mechanism"/>
@@ -13276,7 +13202,7 @@
     <s v="Approved"/>
     <s v="Shirkant"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13289,7 +13215,7 @@
     <s v="MOS-21752"/>
     <d v="2019-04-02T00:00:00"/>
     <s v="Review with Ramesh on ABIS API Spec"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="ABIS Specific CBEFF Files:_x000a_We should send ABIS Specific Data for ABIS. Example: If we have a AFIS then we should send Finger Print Information only"/>
@@ -13301,7 +13227,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-04-02T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13314,7 +13240,7 @@
     <s v="MOS-21996"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Login:_x000a_If the RO forgets user name - provide a link to the Admin portal so that the user can retrieve the username. Dependency on the Admin portal to define the flow."/>
@@ -13326,7 +13252,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <n v="1"/>
     <s v="1.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13339,7 +13265,7 @@
     <s v="MOS-21997"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Login:_x000a_'Forgot password' should be a link instead of a button."/>
@@ -13351,7 +13277,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <n v="1"/>
     <s v="1.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13364,7 +13290,7 @@
     <s v="MOS-21998"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Operator On-boarding:_x000a_The landing page should have a placeholder for training content. UX team to come up with the design."/>
@@ -13376,7 +13302,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13389,7 +13315,7 @@
     <s v="MOS-21999"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Operator On-boarding - Exceptions:_x000a_Morocco screens will capture only irises and not fingerprints. Create a new screen showing iris exceptions aligned at the centre. Similarly if a country captures fingerprints only, the fingerprint exception images should be centre aligned."/>
@@ -13401,7 +13327,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13414,7 +13340,7 @@
     <s v="MOS-22000"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Operator On-boarding - Biometrics capture:_x000a_When a biometric is captured, validate that its quality meets the threshold before sending to server for authentication. "/>
@@ -13426,7 +13352,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13439,7 +13365,7 @@
     <s v="MOS-22001"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Operator On-boarding - Biometrics capture:_x000a_The exceptions marked in the previous screen need not be displayed as text notes in the subsequent fingerprint and iris capture pages. Remove the exceptions displayed on these pages."/>
@@ -13451,7 +13377,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13464,7 +13390,7 @@
     <m/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Operator On-boarding - Photo capture:_x000a_The exception photo should not be captured. Remove this."/>
@@ -13476,7 +13402,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="8"/>
+    <n v="0"/>
     <s v="0"/>
     <s v="Yes"/>
     <x v="2"/>
@@ -13489,7 +13415,7 @@
     <s v="MOS-22006"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="EoD Process:_x000a_On load of the EoD page, the first packet should be selected by default."/>
@@ -13501,7 +13427,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13514,7 +13440,7 @@
     <s v="MOS-22007"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="EoD Process:_x000a_The acknowledgement slip should be smaller - no scrolling should be required."/>
@@ -13526,7 +13452,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13539,7 +13465,7 @@
     <s v="MOS-22008"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="EoD Process:_x000a_The 'Approve' and 'Reject' actions should be placed closer to the list. Suggestion - provide 'tick' and 'cross' buttons on each row in the list. Buttons will be greyed out by default and become active when the row is selected."/>
@@ -13551,7 +13477,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13564,7 +13490,7 @@
     <s v="MOS-22009"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="EoD Process:_x000a_The list of registrations should include:_x000a_a. A Search field to perform partial search on the RID_x000a_b. Sorting of list by ascending and descending order on clicking the headers_x000a_c. Excel icon to export the data in csv format"/>
@@ -13576,7 +13502,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <n v="10"/>
     <s v="15"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13589,7 +13515,7 @@
     <s v="MOS-22010"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="EoD Process:_x000a_Add the registration date as a new column."/>
@@ -13601,7 +13527,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="26"/>
+    <n v="3"/>
     <s v="4.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13614,7 +13540,7 @@
     <s v="MOS-22011"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Home page:_x000a_The content in the 'news and updates' section should be configurable. The Admin should be able to add text content through the Admin portal, such as news, announcements, links and training material, and sync to display on the reg. client."/>
@@ -13626,7 +13552,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13639,7 +13565,7 @@
     <s v="MOS-22012"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Upload packet:_x000a_The list of registrations should include:_x000a_a. A new column for registration date_x000a_b. Sorting of list by ascending and descending order on clicking the headers_x000a_c. Excel icon to export the data in csv format"/>
@@ -13651,7 +13577,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13664,7 +13590,7 @@
     <s v="MOS-22013"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="UI"/>
     <s v="Upload packet:_x000a_The width of the table should be reduced and not run across the entire page."/>
@@ -13676,7 +13602,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13689,7 +13615,7 @@
     <m/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Config Discussion with Anadhi - 04Apr19"/>
-    <x v="5"/>
+    <s v="Pre-registration"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Configuration of Processes: _x000a_Turning on/off of features for Pre-registration module should be addressed as part of v1.5"/>
@@ -13701,7 +13627,7 @@
     <s v="Approved"/>
     <s v="Anadhi"/>
     <d v="2019-04-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="No"/>
     <x v="3"/>
@@ -13714,7 +13640,7 @@
     <m/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Config Discussion with Anadhi - 04Apr19"/>
-    <x v="7"/>
+    <s v="Admin/_x000a_Reporting"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Configuration Validator - Business Rules: _x000a_The config validator will have a set of business rules for  Configuration Parameters. In the event of a change in the Config parameters, warn the administrator of the change. This should be implemented as part of v1.5"/>
@@ -13726,7 +13652,7 @@
     <s v="Approved"/>
     <s v="Anadhi"/>
     <d v="2019-04-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="No"/>
     <x v="3"/>
@@ -13739,7 +13665,7 @@
     <m/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Config Discussion with Anadhi - 04Apr19"/>
-    <x v="7"/>
+    <s v="Admin/_x000a_Reporting"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Configuration Validator - Processes: _x000a_The config validator will have a set of additional business rules as required at Process level – On system initiation, the system should identify if all Processes have been setup consistently in the Config File, to ensure seamless continuity - EG: FP Capture turned on in Reg. Client but FP Validation turned off in Reg. Processor/vice-versa_x000a_This should be implemented as part of v1.5 "/>
@@ -13751,7 +13677,7 @@
     <s v="Approved"/>
     <s v="Anadhi"/>
     <d v="2019-04-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="No"/>
     <x v="3"/>
@@ -13761,10 +13687,10 @@
   </r>
   <r>
     <n v="228"/>
-    <s v="MOS-21750"/>
+    <s v="MOS-21750_x000a_MOS-22068"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Meeting with Ramesh/Shrikant: _x000a_Dated: 4-Apr-19_x000a_Subject: On-Hold and Rejection Scenarios for Registration Processor_x000a_"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Removal of Applicant Type and Inclusion of Document validation_x000a_a. Find the Age of the Individual_x000a_b. Based on the Age identify the Type of Individual (Adult/Child)_x000a_c. Validate if the Corresponding Category Fields (e.g. proofOfAddress) have the Document Type Code (DOC009) captured_x000a_d. Also check if the Document corresponding to the Document Name (POA_DrivingLicence) is Present in the Packet."/>
@@ -13776,7 +13702,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-04-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="19"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13789,7 +13715,7 @@
     <s v="MOS-21751"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Meeting with Ramesh/Shrikant: _x000a_Dated: 4-Apr-19_x000a_Subject: On-Hold and Rejection Scenarios for Registration Processor_x000a_"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Removal of Applicant Type and Inclusion of Document validation_x000a_As Registration Processor, I should be able to Validate if the Mandatory Fields Specified by a Country are Captured in NEW Registration"/>
@@ -13801,7 +13727,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-04-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <n v="19"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13814,7 +13740,7 @@
     <s v="MOS-22030"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Meeting with Ramesh/Shrikant: _x000a_Dated: 4-Apr-19_x000a_Subject: On-Hold and Rejection Scenarios for Registration Processor_x000a_"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Implementing On-Hold Scenarios for Registration Processor_x000a_Manual Internvension for On-Hold Scenario is to be done post Bio-Dedupe"/>
@@ -13826,7 +13752,7 @@
     <s v="Approved"/>
     <s v="Ramesh"/>
     <d v="2019-04-04T00:00:00"/>
-    <x v="13"/>
+    <m/>
     <m/>
     <s v="No"/>
     <x v="0"/>
@@ -13839,7 +13765,7 @@
     <s v="MOS-22161"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Sprint 9 - UI Demo Feedback from Shrikant on 04Apr19"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Device Operator On-boarding - Biometrics capture:_x000a_When a biometric is captured, validate that its quality meets the threshold before sending to server for authentication. "/>
@@ -13851,7 +13777,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="5"/>
     <s v="7.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13864,7 +13790,7 @@
     <s v="MOS-23263"/>
     <d v="2019-04-04T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Enable data loss in Audit (Optional) – This is the review comment from Ramesh. We can make this as an optional for the June 30th release. _x000a_a. Ensure there are no loss in the audit services. _x000a_b. Implement the solution using Kafka (Ramesh)_x000a_c. Implement the Merkel tree datastructure in the Audit (Sasi)"/>
@@ -13876,7 +13802,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <s v="30"/>
     <s v="Yes"/>
     <x v="0"/>
@@ -13889,7 +13815,7 @@
     <s v="MOS-22981"/>
     <d v="2019-04-15T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Tech Story - Provide a Java utility API method to do a Symmetric key algorithm which accepts IV (Initialization Vector) as a parameter"/>
@@ -13901,7 +13827,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <s v="3.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13914,7 +13840,7 @@
     <s v="MOS-22982"/>
     <d v="2019-04-15T00:00:00"/>
     <s v="Review with Sasi/Ramesh"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Salt Generator and encryption algorithm:_x000a_As required by IDA, to secure UIN "/>
@@ -13926,7 +13852,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <s v="3.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13939,7 +13865,7 @@
     <s v="MOS-18108"/>
     <d v="2019-04-15T00:00:00"/>
     <s v="Discussion with Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Redesign Internal API to accomodate biometric authentication request for a Supervisor/Operator for RegClient/Reg Processor - retrieve UIN for RID"/>
@@ -13951,7 +13877,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13964,7 +13890,7 @@
     <s v="MOS-23106"/>
     <d v="2019-04-17T00:00:00"/>
     <s v="Clarification with Sasi/Ramesh"/>
-    <x v="1"/>
+    <s v="ID Authentication"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="As the MOSIP system, I should be able to encrypt e-KYC response"/>
@@ -13976,7 +13902,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="4.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -13989,7 +13915,7 @@
     <m/>
     <d v="2019-04-17T00:00:00"/>
     <s v="Clarification with Sasi/Ramesh"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Sign and Verify Digital Signature utility - As requested by IDA_x000a_(IDA: As the MOSIP system, I should be able to implement digital signature for auth and ekyc response)"/>
@@ -14001,7 +13927,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="3.5"/>
     <s v="Yes"/>
     <x v="3"/>
@@ -14014,7 +13940,7 @@
     <m/>
     <d v="2019-04-17T00:00:00"/>
     <s v="Clarification with Sasi/Ramesh"/>
-    <x v="6"/>
+    <s v="Kernel"/>
     <s v="New"/>
     <s v="Design/Technical"/>
     <s v="Verify Kernel API's Digital Signature like send OTP would be both internally and externally used - Pending client clarification(Sasi)"/>
@@ -14026,7 +13952,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="6"/>
     <s v="Yes"/>
     <x v="3"/>
@@ -14039,7 +13965,7 @@
     <s v="MOS-23288"/>
     <d v="2019-04-25T00:00:00"/>
     <s v="Shrikant comments in MOS 21547"/>
-    <x v="0"/>
+    <s v="Registration Client"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Capture exception photo if exception is marked child's new registration/UIN update"/>
@@ -14051,7 +13977,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="26"/>
+    <n v="3"/>
     <n v="4.5"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -14064,7 +13990,7 @@
     <s v="MOS-22026"/>
     <d v="2019-04-15T00:00:00"/>
     <s v="Email Dated: 15-Apr-19_x000a_RE: Operator Registration and Onboarding - Secure storage of mapping of UIN with User ID"/>
-    <x v="2"/>
+    <s v="Registration Processor"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="OSI validation in Registration Processor:_x000a_a._x0009_Receive Operator User ID, Packet Creation Date and Officer or Supervisor Biometrics as part of the Packet_x000a_b._x0009_Using User ID and Packet Creation Date check if the User was Active when Packet was created_x000a_c._x0009_Using User ID &gt; Identify RID from LDAP and using RID retrieve UIN with associated biometrics_x000a_d._x0009_Using Biometrics received and IDA API authenticate the Officer or Supervisor’s biometrics"/>
@@ -14076,7 +14002,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="10"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -14089,7 +14015,7 @@
     <s v="MOS-23506"/>
     <d v="2019-05-03T00:00:00"/>
     <s v="Discussion with Shravan"/>
-    <x v="10"/>
+    <s v="ID-Repo"/>
     <s v="New"/>
     <s v="Technical"/>
     <s v="ID Validator and IdRepo Changes"/>
@@ -14101,7 +14027,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <m/>
     <n v="3"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -14114,7 +14040,7 @@
     <s v="MOS-23802"/>
     <d v="2019-05-07T00:00:00"/>
     <s v="Feedback during review of configurations - Refer MoM dated 07-May-19"/>
-    <x v="11"/>
+    <s v="IDA"/>
     <s v="New"/>
     <s v="Functional"/>
     <s v="Modify Internal API for Biometric Authentication to support 10 fingers in the request"/>
@@ -14126,7 +14052,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="15"/>
+    <n v="6"/>
     <n v="12"/>
     <s v="Yes"/>
     <x v="1"/>
@@ -14134,34 +14060,263 @@
     <s v="This is a change only for Internal Auth"/>
     <m/>
   </r>
+  <r>
+    <n v="243"/>
+    <s v="Refer comments"/>
+    <d v="2019-05-01T00:00:00"/>
+    <s v="NA"/>
+    <s v="Partner Management Portal"/>
+    <s v="New"/>
+    <m/>
+    <s v="Partner Management Module - Requirements, Design, API Specs"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="170"/>
+    <s v="No"/>
+    <x v="1"/>
+    <m/>
+    <s v="- Support provided by 1 Architect, 2 BAs and 1 PM_x000a_- JIRA Board: https://mosipid.atlassian.net/secure/RapidBoard.jspa?rapidView=23&amp;view=planning.nodetail"/>
+    <m/>
+  </r>
+  <r>
+    <n v="244"/>
+    <s v="Refer comments"/>
+    <d v="2019-05-01T00:00:00"/>
+    <s v="NA"/>
+    <s v="IDA"/>
+    <s v="New"/>
+    <m/>
+    <s v="VID Concept change (with policies)"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="100"/>
+    <n v="150"/>
+    <s v="No"/>
+    <x v="1"/>
+    <m/>
+    <s v="- Requirements Delay_x000a_- Design Change_x000a_- IDA &amp; ID Repo Changes"/>
+    <m/>
+  </r>
+  <r>
+    <n v="245"/>
+    <s v="NA"/>
+    <d v="2019-04-01T00:00:00"/>
+    <s v="NA"/>
+    <s v="Registration Client"/>
+    <s v="New"/>
+    <m/>
+    <s v="Device Onboarding Process Removal"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="Yes"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="246"/>
+    <s v="NA"/>
+    <d v="2019-04-01T00:00:00"/>
+    <s v="NA"/>
+    <s v="Registration Client"/>
+    <s v="New"/>
+    <m/>
+    <s v="User Onboarding Process Change - Removal of mapping of User-Machine"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="Yes"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="247"/>
+    <s v="NA"/>
+    <d v="2018-12-30T00:00:00"/>
+    <s v="NA"/>
+    <s v="Pre-registration"/>
+    <s v="New"/>
+    <m/>
+    <s v="UX Finalization - Pre-registration"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="30"/>
+    <s v="Yes"/>
+    <x v="1"/>
+    <m/>
+    <s v="- Delay in finalization of Pre-registration UX_x000a_- Support provided by 2 UX Designers and 2 BAs"/>
+    <m/>
+  </r>
+  <r>
+    <n v="248"/>
+    <s v="MOS-24815, MOS-25102"/>
+    <d v="2019-06-15T00:00:00"/>
+    <s v="NA"/>
+    <s v="Pre-registration"/>
+    <s v="New"/>
+    <m/>
+    <s v="UX Enhancements - Re-visit UX for Pre-registration_x000a_- UX analysis and basic typography and alignment fixes"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="25"/>
+    <n v="28"/>
+    <s v="Yes"/>
+    <x v="6"/>
+    <m/>
+    <s v="- Requirements gathering completed_x000a_- Basic typography and alignment fixes Done_x000a_- Support provided by 2 UX Designers, 1 BA and 1 developer"/>
+    <m/>
+  </r>
+  <r>
+    <n v="249"/>
+    <s v="MOS-25101"/>
+    <d v="2019-06-15T00:00:00"/>
+    <s v="NA"/>
+    <s v="Registration Client"/>
+    <s v="New"/>
+    <m/>
+    <s v="UX Enhancements - Re-visit UX for Registration Client_x000a_- UX analysis and basic typography and alignment fixes"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="25"/>
+    <n v="28"/>
+    <s v="Yes"/>
+    <x v="6"/>
+    <m/>
+    <s v="- Requirements gathering completed_x000a_- Basic typography and alignment fixes Done_x000a_- Support provided by 2 UX Designers, 1 BA and 1 developer"/>
+    <m/>
+  </r>
+  <r>
+    <n v="250"/>
+    <s v="NA"/>
+    <d v="2018-12-15T00:00:00"/>
+    <s v="NA"/>
+    <s v="All"/>
+    <s v="New"/>
+    <m/>
+    <s v="Bootcamp Jan'19 - Demo and Presentation"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="20"/>
+    <s v="Yes"/>
+    <x v="1"/>
+    <m/>
+    <s v="- Support provided by 1 Architect, 1 UX Designer, 1 BA and 1 PM"/>
+    <m/>
+  </r>
+  <r>
+    <n v="252"/>
+    <s v="NA"/>
+    <d v="2019-02-01T00:00:00"/>
+    <s v="NA"/>
+    <s v="All"/>
+    <s v="New"/>
+    <m/>
+    <s v="Additional Environments - 7 v/s 2 planned"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <s v="No"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="253"/>
+    <s v="NA"/>
+    <d v="2019-01-28T00:00:00"/>
+    <s v="NA"/>
+    <s v="All"/>
+    <s v="New"/>
+    <m/>
+    <s v="Functional demo of all modules _x000a_- Day long demo from 10AM to 4PM per module, as requested by CPU team"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="120"/>
+    <s v="Yes"/>
+    <x v="1"/>
+    <m/>
+    <s v="- Support provided by 1 Architect, 4 Developers, 1 Tech Lead, 1 BA and 1 Tester for 3 days, per module (5 modules)"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="7"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14173,50 +14328,21 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="32">
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="26"/>
-        <item x="21"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="30"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="24"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="25"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="4"/>
         <item x="1"/>
         <item x="5"/>
         <item x="2"/>
+        <item x="6"/>
         <item x="3"/>
         <item x="0"/>
         <item t="default"/>
@@ -14229,7 +14355,7 @@
   <rowFields count="1">
     <field x="19"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -14247,6 +14373,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -14267,37 +14396,6 @@
     <dataField name="Sum of CUT Effort (PDs)" fld="16" baseField="19" baseItem="0"/>
     <dataField name="Sum of Effort (PDs) " fld="17" baseField="19" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="5">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="19" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -14570,117 +14668,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="9" width="2" customWidth="1"/>
-    <col min="10" max="19" width="3" customWidth="1"/>
-    <col min="20" max="20" width="2" customWidth="1"/>
-    <col min="21" max="22" width="3" customWidth="1"/>
-    <col min="23" max="23" width="2" customWidth="1"/>
-    <col min="24" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="2" customWidth="1"/>
-    <col min="28" max="28" width="3" customWidth="1"/>
-    <col min="29" max="30" width="2" customWidth="1"/>
-    <col min="31" max="31" width="3.7109375" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>756</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="149">
+      <c r="B4" s="160">
         <v>10</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="160">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="159" t="s">
         <v>450</v>
       </c>
-      <c r="B5" s="149">
-        <v>601</v>
-      </c>
-      <c r="C5" s="149">
-        <v>1594.5</v>
+      <c r="B5" s="160">
+        <v>703</v>
+      </c>
+      <c r="C5" s="160">
+        <v>2088.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="159" t="s">
         <v>743</v>
       </c>
-      <c r="B6" s="149">
-        <v>0</v>
-      </c>
-      <c r="C6" s="149">
+      <c r="B6" s="160"/>
+      <c r="C6" s="160">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="160">
         <v>116</v>
       </c>
-      <c r="C7" s="149">
+      <c r="C7" s="160">
         <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
-        <v>744</v>
-      </c>
-      <c r="B8" s="149">
-        <v>10</v>
-      </c>
-      <c r="C8" s="149">
-        <v>24.5</v>
+      <c r="A8" s="159" t="s">
+        <v>773</v>
+      </c>
+      <c r="B8" s="160">
+        <v>50</v>
+      </c>
+      <c r="C8" s="160">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
-        <v>742</v>
-      </c>
-      <c r="B9" s="149">
-        <v>722</v>
-      </c>
-      <c r="C9" s="149">
-        <v>1055.5</v>
+      <c r="A9" s="159" t="s">
+        <v>744</v>
+      </c>
+      <c r="B9" s="160">
+        <v>10</v>
+      </c>
+      <c r="C9" s="160">
+        <v>24.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="159" t="s">
+        <v>742</v>
+      </c>
+      <c r="B10" s="160">
+        <v>722</v>
+      </c>
+      <c r="C10" s="160">
+        <v>1055.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="149">
-        <v>1459</v>
-      </c>
-      <c r="C10" s="149">
-        <v>3053.5</v>
+      <c r="B11" s="160">
+        <v>1611</v>
+      </c>
+      <c r="C11" s="160">
+        <v>3603.5</v>
       </c>
     </row>
   </sheetData>
@@ -14692,11 +14785,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD269"/>
+  <dimension ref="A1:XFD270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14727,30 +14820,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="153"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="150"/>
       <c r="W1" s="143"/>
     </row>
     <row r="2" spans="1:23" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -45267,7 +45360,7 @@
       <c r="V240" s="27"/>
       <c r="W240" s="28"/>
     </row>
-    <row r="241" spans="1:23" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A241" s="81">
         <v>239</v>
       </c>
@@ -45326,7 +45419,7 @@
       <c r="V241" s="21"/>
       <c r="W241" s="110"/>
     </row>
-    <row r="242" spans="1:23" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A242" s="81">
         <v>240</v>
       </c>
@@ -45375,7 +45468,7 @@
       <c r="V242" s="21"/>
       <c r="W242" s="110"/>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" s="81">
         <v>241</v>
       </c>
@@ -45424,7 +45517,7 @@
       <c r="V243" s="21"/>
       <c r="W243" s="110"/>
     </row>
-    <row r="244" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A244" s="81">
         <v>242</v>
       </c>
@@ -45479,40 +45572,515 @@
       </c>
       <c r="W244" s="110"/>
     </row>
-    <row r="245" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="81">
+        <v>243</v>
+      </c>
+      <c r="B245" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="C245" s="82">
+        <v>43586</v>
+      </c>
+      <c r="D245" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E245" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="F245" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G245" s="74"/>
+      <c r="H245" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="M245" s="21">
+        <v>1</v>
+      </c>
+      <c r="N245" s="27"/>
+      <c r="O245" s="27"/>
+      <c r="P245" s="27"/>
+      <c r="Q245" s="26">
+        <v>0</v>
+      </c>
+      <c r="R245" s="26">
+        <v>170</v>
+      </c>
+      <c r="S245" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="T245" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U245" s="81"/>
+      <c r="V245" s="154" t="s">
+        <v>770</v>
+      </c>
+      <c r="W245" s="110"/>
     </row>
-    <row r="246" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="81">
+        <v>244</v>
+      </c>
+      <c r="B246" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="C246" s="82">
+        <v>43586</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E246" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="F246" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G246" s="74"/>
+      <c r="H246" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="M246" s="21">
+        <v>1</v>
+      </c>
+      <c r="N246" s="27"/>
+      <c r="O246" s="27"/>
+      <c r="P246" s="27"/>
+      <c r="Q246" s="54">
+        <v>100</v>
+      </c>
+      <c r="R246" s="81">
+        <v>150</v>
+      </c>
+      <c r="S246" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="T246" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U246" s="81"/>
+      <c r="V246" s="154" t="s">
+        <v>771</v>
+      </c>
+      <c r="W246" s="110"/>
     </row>
-    <row r="247" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="81">
+        <v>245</v>
+      </c>
+      <c r="B247" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C247" s="82">
+        <v>43556</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E247" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G247" s="74"/>
+      <c r="H247" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="M247" s="21">
+        <v>1</v>
+      </c>
+      <c r="N247" s="27"/>
+      <c r="O247" s="27"/>
+      <c r="P247" s="27"/>
+      <c r="Q247" s="54">
+        <v>1</v>
+      </c>
+      <c r="R247" s="81">
+        <v>2</v>
+      </c>
+      <c r="S247" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T247" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U247" s="81"/>
+      <c r="V247" s="21"/>
+      <c r="W247" s="110"/>
     </row>
-    <row r="248" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="81">
+        <v>246</v>
+      </c>
+      <c r="B248" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C248" s="82">
+        <v>43556</v>
+      </c>
+      <c r="D248" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E248" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G248" s="74"/>
+      <c r="H248" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="M248" s="21">
+        <v>1</v>
+      </c>
+      <c r="N248" s="27"/>
+      <c r="O248" s="27"/>
+      <c r="P248" s="27"/>
+      <c r="Q248" s="54">
+        <v>1</v>
+      </c>
+      <c r="R248" s="81">
+        <v>2</v>
+      </c>
+      <c r="S248" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T248" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U248" s="81"/>
+      <c r="V248" s="21"/>
+      <c r="W248" s="110"/>
     </row>
-    <row r="249" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="81">
+        <v>247</v>
+      </c>
+      <c r="B249" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C249" s="82">
+        <v>43464</v>
+      </c>
+      <c r="D249" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E249" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G249" s="74"/>
+      <c r="H249" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="M249" s="21">
+        <v>1</v>
+      </c>
+      <c r="N249" s="27"/>
+      <c r="O249" s="27"/>
+      <c r="P249" s="27"/>
+      <c r="Q249" s="54">
+        <v>0</v>
+      </c>
+      <c r="R249" s="81">
+        <v>30</v>
+      </c>
+      <c r="S249" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T249" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U249" s="81"/>
+      <c r="V249" s="154" t="s">
+        <v>772</v>
+      </c>
+      <c r="W249" s="110"/>
     </row>
-    <row r="250" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="81">
+        <v>248</v>
+      </c>
+      <c r="B250" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="C250" s="82">
+        <v>43631</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E250" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F250" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G250" s="74"/>
+      <c r="H250" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="M250" s="21">
+        <v>1</v>
+      </c>
+      <c r="N250" s="27"/>
+      <c r="O250" s="27"/>
+      <c r="P250" s="27"/>
+      <c r="Q250" s="54">
+        <v>25</v>
+      </c>
+      <c r="R250" s="81">
+        <v>28</v>
+      </c>
+      <c r="S250" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T250" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="U250" s="81"/>
+      <c r="V250" s="154" t="s">
+        <v>774</v>
+      </c>
+      <c r="W250" s="110"/>
     </row>
-    <row r="251" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="81">
+        <v>249</v>
+      </c>
+      <c r="B251" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="C251" s="82">
+        <v>43631</v>
+      </c>
+      <c r="D251" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E251" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G251" s="74"/>
+      <c r="H251" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="M251" s="21">
+        <v>1</v>
+      </c>
+      <c r="N251" s="27"/>
+      <c r="O251" s="27"/>
+      <c r="P251" s="27"/>
+      <c r="Q251" s="54">
+        <v>25</v>
+      </c>
+      <c r="R251" s="81">
+        <v>28</v>
+      </c>
+      <c r="S251" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T251" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="U251" s="81"/>
+      <c r="V251" s="154" t="s">
+        <v>774</v>
+      </c>
+      <c r="W251" s="110"/>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="81">
+        <v>250</v>
+      </c>
+      <c r="B252" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C252" s="82">
+        <v>43449</v>
+      </c>
+      <c r="D252" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E252" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="F252" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G252" s="75"/>
+      <c r="H252" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="M252" s="21">
+        <v>1</v>
+      </c>
+      <c r="N252" s="27"/>
+      <c r="O252" s="27"/>
+      <c r="P252" s="27"/>
+      <c r="Q252" s="54">
+        <v>0</v>
+      </c>
+      <c r="R252" s="81">
+        <v>20</v>
+      </c>
+      <c r="S252" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T252" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U252" s="81"/>
+      <c r="V252" s="154" t="s">
+        <v>775</v>
+      </c>
+      <c r="W252" s="110"/>
     </row>
-    <row r="253" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="G253" s="74"/>
+    <row r="253" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="81">
+        <v>251</v>
+      </c>
+      <c r="B253" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C253" s="82">
+        <v>43497</v>
+      </c>
+      <c r="D253" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E253" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G253" s="71"/>
+      <c r="H253" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="I253" s="13"/>
+      <c r="J253" s="27"/>
+      <c r="K253" s="27"/>
+      <c r="L253" s="27"/>
+      <c r="M253" s="21">
+        <v>1</v>
+      </c>
+      <c r="N253" s="27"/>
+      <c r="O253" s="27"/>
+      <c r="P253" s="27"/>
+      <c r="Q253" s="161">
+        <v>0</v>
+      </c>
+      <c r="R253" s="162"/>
+      <c r="S253" s="163" t="s">
+        <v>462</v>
+      </c>
+      <c r="T253" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="U253" s="21"/>
+      <c r="V253" s="21"/>
+      <c r="W253" s="21"/>
+      <c r="X253" s="110"/>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G254" s="75"/>
+    <row r="254" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="121">
+        <v>252</v>
+      </c>
+      <c r="B254" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C254" s="105">
+        <v>43497</v>
+      </c>
+      <c r="D254" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="E254" s="106" t="s">
+        <v>761</v>
+      </c>
+      <c r="F254" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G254" s="74"/>
+      <c r="H254" s="106" t="s">
+        <v>776</v>
+      </c>
+      <c r="M254" s="21">
+        <v>1</v>
+      </c>
+      <c r="N254" s="27"/>
+      <c r="O254" s="27"/>
+      <c r="P254" s="27"/>
+      <c r="Q254" s="155">
+        <v>0</v>
+      </c>
+      <c r="R254" s="156"/>
+      <c r="S254" s="157" t="s">
+        <v>462</v>
+      </c>
+      <c r="T254" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U254" s="81"/>
+      <c r="V254" s="21"/>
+      <c r="W254" s="110"/>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="81">
+        <v>253</v>
+      </c>
+      <c r="B255" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C255" s="82">
+        <v>43493</v>
+      </c>
+      <c r="D255" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E255" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="F255" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G255" s="75"/>
+      <c r="H255" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="M255" s="21"/>
+      <c r="N255" s="27"/>
+      <c r="O255" s="27"/>
+      <c r="P255" s="27"/>
+      <c r="Q255" s="54">
+        <v>0</v>
+      </c>
+      <c r="R255" s="81">
+        <v>120</v>
+      </c>
+      <c r="S255" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="T255" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="U255" s="81"/>
+      <c r="V255" s="154" t="s">
+        <v>778</v>
+      </c>
+      <c r="W255" s="110"/>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G256" s="75"/>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.25">
@@ -45553,6 +46121,9 @@
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G269" s="75"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G270" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:XFD244"/>
@@ -45894,6 +46465,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -45916,15 +46496,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
@@ -45944,6 +46515,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -45957,12 +46536,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>